--- a/S1 Keperawatan/RPL/RPL 1/Transkip RPL 1.xlsx
+++ b/S1 Keperawatan/RPL/RPL 1/Transkip RPL 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\transkip_nilai_2025\S1 Keperawatan\RPL\RPL 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D2D8BB-BC75-46DE-94E0-A494B1FD8CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E53407E-0069-43DB-8783-03A9735619F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C623B17B-F356-4211-B3E1-9052FF0B64E1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="101">
   <si>
     <t>NO</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>06 Oktober 2025</t>
+  </si>
+  <si>
+    <t>Pengaruh Pemberian Terapi Musik Terhadap Kecemasan Pasien Anak Toodler Usia 1-3 Tahun Pada Pemasangan Infus Di Ruang Lotus Rsbk Batam</t>
   </si>
 </sst>
 </file>
@@ -499,23 +502,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -526,7 +518,18 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,7 +848,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="EK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G21" sqref="G21"/>
+      <selection pane="topRight" activeCell="FC7" sqref="FC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1005,262 +1008,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="26" t="s">
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24" t="s">
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24" t="s">
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24" t="s">
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24" t="s">
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24" t="s">
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24" t="s">
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="23" t="s">
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="23" t="s">
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+      <c r="BD1" s="26"/>
+      <c r="BE1" s="26"/>
+      <c r="BF1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="BG1" s="23"/>
-      <c r="BH1" s="23"/>
-      <c r="BI1" s="23"/>
-      <c r="BJ1" s="23"/>
-      <c r="BK1" s="23" t="s">
+      <c r="BG1" s="26"/>
+      <c r="BH1" s="26"/>
+      <c r="BI1" s="26"/>
+      <c r="BJ1" s="26"/>
+      <c r="BK1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="BL1" s="23"/>
-      <c r="BM1" s="23"/>
-      <c r="BN1" s="23"/>
-      <c r="BO1" s="23"/>
-      <c r="BP1" s="23" t="s">
+      <c r="BL1" s="26"/>
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BQ1" s="23"/>
-      <c r="BR1" s="23"/>
-      <c r="BS1" s="23"/>
-      <c r="BT1" s="23"/>
-      <c r="BU1" s="23" t="s">
+      <c r="BQ1" s="26"/>
+      <c r="BR1" s="26"/>
+      <c r="BS1" s="26"/>
+      <c r="BT1" s="26"/>
+      <c r="BU1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="BV1" s="23"/>
-      <c r="BW1" s="23"/>
-      <c r="BX1" s="23"/>
-      <c r="BY1" s="23"/>
-      <c r="BZ1" s="23" t="s">
+      <c r="BV1" s="26"/>
+      <c r="BW1" s="26"/>
+      <c r="BX1" s="26"/>
+      <c r="BY1" s="26"/>
+      <c r="BZ1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="CA1" s="23"/>
-      <c r="CB1" s="23"/>
-      <c r="CC1" s="23"/>
-      <c r="CD1" s="23"/>
-      <c r="CE1" s="23" t="s">
+      <c r="CA1" s="26"/>
+      <c r="CB1" s="26"/>
+      <c r="CC1" s="26"/>
+      <c r="CD1" s="26"/>
+      <c r="CE1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="CF1" s="23"/>
-      <c r="CG1" s="23"/>
-      <c r="CH1" s="23"/>
-      <c r="CI1" s="23"/>
-      <c r="CJ1" s="23" t="s">
+      <c r="CF1" s="26"/>
+      <c r="CG1" s="26"/>
+      <c r="CH1" s="26"/>
+      <c r="CI1" s="26"/>
+      <c r="CJ1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="CK1" s="23"/>
-      <c r="CL1" s="23"/>
-      <c r="CM1" s="23"/>
-      <c r="CN1" s="23"/>
-      <c r="CO1" s="23" t="s">
+      <c r="CK1" s="26"/>
+      <c r="CL1" s="26"/>
+      <c r="CM1" s="26"/>
+      <c r="CN1" s="26"/>
+      <c r="CO1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="CP1" s="23"/>
-      <c r="CQ1" s="23"/>
-      <c r="CR1" s="23"/>
-      <c r="CS1" s="23"/>
-      <c r="CT1" s="23" t="s">
+      <c r="CP1" s="26"/>
+      <c r="CQ1" s="26"/>
+      <c r="CR1" s="26"/>
+      <c r="CS1" s="26"/>
+      <c r="CT1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="CU1" s="23"/>
-      <c r="CV1" s="23"/>
-      <c r="CW1" s="23"/>
-      <c r="CX1" s="23"/>
-      <c r="CY1" s="22" t="s">
+      <c r="CU1" s="26"/>
+      <c r="CV1" s="26"/>
+      <c r="CW1" s="26"/>
+      <c r="CX1" s="26"/>
+      <c r="CY1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="CZ1" s="22"/>
-      <c r="DA1" s="22"/>
-      <c r="DB1" s="22"/>
-      <c r="DC1" s="22"/>
-      <c r="DD1" s="22" t="s">
+      <c r="CZ1" s="25"/>
+      <c r="DA1" s="25"/>
+      <c r="DB1" s="25"/>
+      <c r="DC1" s="25"/>
+      <c r="DD1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="DE1" s="22"/>
-      <c r="DF1" s="22"/>
-      <c r="DG1" s="22"/>
-      <c r="DH1" s="22"/>
-      <c r="DI1" s="22" t="s">
+      <c r="DE1" s="25"/>
+      <c r="DF1" s="25"/>
+      <c r="DG1" s="25"/>
+      <c r="DH1" s="25"/>
+      <c r="DI1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="DJ1" s="22"/>
-      <c r="DK1" s="22"/>
-      <c r="DL1" s="22"/>
-      <c r="DM1" s="22"/>
-      <c r="DN1" s="22" t="s">
+      <c r="DJ1" s="25"/>
+      <c r="DK1" s="25"/>
+      <c r="DL1" s="25"/>
+      <c r="DM1" s="25"/>
+      <c r="DN1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="DO1" s="22"/>
-      <c r="DP1" s="22"/>
-      <c r="DQ1" s="22"/>
-      <c r="DR1" s="22"/>
-      <c r="DS1" s="22" t="s">
+      <c r="DO1" s="25"/>
+      <c r="DP1" s="25"/>
+      <c r="DQ1" s="25"/>
+      <c r="DR1" s="25"/>
+      <c r="DS1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="DT1" s="22"/>
-      <c r="DU1" s="22"/>
-      <c r="DV1" s="22"/>
-      <c r="DW1" s="22"/>
-      <c r="DX1" s="22" t="s">
+      <c r="DT1" s="25"/>
+      <c r="DU1" s="25"/>
+      <c r="DV1" s="25"/>
+      <c r="DW1" s="25"/>
+      <c r="DX1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="DY1" s="22"/>
-      <c r="DZ1" s="22"/>
-      <c r="EA1" s="22"/>
-      <c r="EB1" s="22"/>
-      <c r="EC1" s="22" t="s">
+      <c r="DY1" s="25"/>
+      <c r="DZ1" s="25"/>
+      <c r="EA1" s="25"/>
+      <c r="EB1" s="25"/>
+      <c r="EC1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="ED1" s="22"/>
-      <c r="EE1" s="22"/>
-      <c r="EF1" s="22"/>
-      <c r="EG1" s="22"/>
-      <c r="EH1" s="22" t="s">
+      <c r="ED1" s="25"/>
+      <c r="EE1" s="25"/>
+      <c r="EF1" s="25"/>
+      <c r="EG1" s="25"/>
+      <c r="EH1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="EI1" s="22"/>
-      <c r="EJ1" s="22"/>
-      <c r="EK1" s="22"/>
-      <c r="EL1" s="22"/>
-      <c r="EM1" s="22" t="s">
+      <c r="EI1" s="25"/>
+      <c r="EJ1" s="25"/>
+      <c r="EK1" s="25"/>
+      <c r="EL1" s="25"/>
+      <c r="EM1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="EN1" s="22"/>
-      <c r="EO1" s="22"/>
-      <c r="EP1" s="22"/>
-      <c r="EQ1" s="22"/>
-      <c r="ER1" s="20" t="s">
+      <c r="EN1" s="25"/>
+      <c r="EO1" s="25"/>
+      <c r="EP1" s="25"/>
+      <c r="EQ1" s="25"/>
+      <c r="ER1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="ES1" s="20"/>
-      <c r="ET1" s="20" t="s">
+      <c r="ES1" s="27"/>
+      <c r="ET1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="EU1" s="20"/>
-      <c r="EV1" s="20" t="s">
+      <c r="EU1" s="27"/>
+      <c r="EV1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="EW1" s="20"/>
-      <c r="EX1" s="21" t="s">
+      <c r="EW1" s="27"/>
+      <c r="EX1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="EY1" s="21" t="s">
+      <c r="EY1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="EZ1" s="19" t="s">
+      <c r="EZ1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="FA1" s="19" t="s">
+      <c r="FA1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="FB1" s="19" t="s">
+      <c r="FB1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="FC1" s="19" t="s">
+      <c r="FC1" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:159" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1699,18 +1702,18 @@
       <c r="EW2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="EX2" s="21"/>
-      <c r="EY2" s="21"/>
-      <c r="EZ2" s="19"/>
-      <c r="FA2" s="19"/>
-      <c r="FB2" s="19"/>
-      <c r="FC2" s="19"/>
+      <c r="EX2" s="28"/>
+      <c r="EY2" s="28"/>
+      <c r="EZ2" s="21"/>
+      <c r="FA2" s="21"/>
+      <c r="FB2" s="21"/>
+      <c r="FC2" s="21"/>
     </row>
     <row r="3" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="7">
@@ -3996,7 +3999,7 @@
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="7">
@@ -4560,7 +4563,9 @@
         <f t="shared" si="121"/>
         <v>Excellent</v>
       </c>
-      <c r="FC7" s="6"/>
+      <c r="FC7" s="6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -5706,7 +5711,7 @@
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="7">
@@ -6276,7 +6281,7 @@
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="7">
@@ -7414,7 +7419,7 @@
       <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="7">
@@ -7984,7 +7989,7 @@
       <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="7">
@@ -8550,7 +8555,7 @@
       <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="7">
@@ -9693,6 +9698,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="FB1:FB2"/>
+    <mergeCell ref="FC1:FC2"/>
+    <mergeCell ref="ET1:EU1"/>
+    <mergeCell ref="EV1:EW1"/>
+    <mergeCell ref="EX1:EX2"/>
+    <mergeCell ref="EY1:EY2"/>
+    <mergeCell ref="EZ1:EZ2"/>
+    <mergeCell ref="FA1:FA2"/>
+    <mergeCell ref="EM1:EQ1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="ER1:ES1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="EC1:EG1"/>
+    <mergeCell ref="EH1:EL1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="A1:A2"/>
@@ -9709,34 +9742,6 @@
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="EM1:EQ1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="ER1:ES1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
-    <mergeCell ref="EC1:EG1"/>
-    <mergeCell ref="EH1:EL1"/>
-    <mergeCell ref="FB1:FB2"/>
-    <mergeCell ref="FC1:FC2"/>
-    <mergeCell ref="ET1:EU1"/>
-    <mergeCell ref="EV1:EW1"/>
-    <mergeCell ref="EX1:EX2"/>
-    <mergeCell ref="EY1:EY2"/>
-    <mergeCell ref="EZ1:EZ2"/>
-    <mergeCell ref="FA1:FA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/S1 Keperawatan/RPL/RPL 1/Transkip RPL 1.xlsx
+++ b/S1 Keperawatan/RPL/RPL 1/Transkip RPL 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E53407E-0069-43DB-8783-03A9735619F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBDE79D-F968-41EA-95CE-D83F6A56169A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C623B17B-F356-4211-B3E1-9052FF0B64E1}"/>
+    <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" xr2:uid="{C623B17B-F356-4211-B3E1-9052FF0B64E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Transkip" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Keselamatan Pasien Dan Keselamatan Kesehatan Kerja Dalam Keperawatan</t>
   </si>
   <si>
-    <t>Dian Sukma Dewi</t>
-  </si>
-  <si>
     <t>Putri Denanda Tami</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>Pengaruh Pemberian Terapi Musik Terhadap Kecemasan Pasien Anak Toodler Usia 1-3 Tahun Pada Pemasangan Infus Di Ruang Lotus Rsbk Batam</t>
+  </si>
+  <si>
+    <t>Dian Sukmadewi</t>
   </si>
 </sst>
 </file>
@@ -503,11 +503,23 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,18 +529,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,423 +847,423 @@
   <dimension ref="A1:FC17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="EK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FC7" sqref="FC7"/>
+      <pane xSplit="3" topLeftCell="CK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CW19" sqref="CW19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.86328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.265625" style="16" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.3984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1328125" style="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="6.5703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="7.140625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="6.140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="6.7109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="6.5703125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="7.140625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="6.140625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="7.7109375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="6.7109375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="6.5703125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="7.140625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="6.140625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="7.7109375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="6.7109375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="6.5703125" style="1" customWidth="1"/>
-    <col min="45" max="45" width="7.140625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="6.140625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="7.7109375" style="1" customWidth="1"/>
-    <col min="48" max="48" width="6.7109375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="6.5703125" style="1" customWidth="1"/>
-    <col min="50" max="50" width="7.140625" style="1" customWidth="1"/>
-    <col min="51" max="51" width="6.140625" style="1" customWidth="1"/>
-    <col min="52" max="52" width="7.7109375" style="1" customWidth="1"/>
-    <col min="53" max="53" width="6.7109375" style="2" customWidth="1"/>
-    <col min="54" max="54" width="6.5703125" style="1" customWidth="1"/>
-    <col min="55" max="55" width="7.140625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="6.140625" style="1" customWidth="1"/>
-    <col min="57" max="57" width="7.7109375" style="1" customWidth="1"/>
-    <col min="58" max="58" width="6.7109375" style="1" customWidth="1"/>
-    <col min="59" max="59" width="6.5703125" style="1" customWidth="1"/>
-    <col min="60" max="60" width="7.140625" style="1" customWidth="1"/>
-    <col min="61" max="61" width="6.140625" style="1" customWidth="1"/>
-    <col min="62" max="62" width="7.7109375" style="1" customWidth="1"/>
-    <col min="63" max="63" width="6.7109375" style="1" customWidth="1"/>
-    <col min="64" max="64" width="6.5703125" style="1" customWidth="1"/>
-    <col min="65" max="65" width="7.140625" style="1" customWidth="1"/>
-    <col min="66" max="66" width="6.140625" style="1" customWidth="1"/>
-    <col min="67" max="67" width="7.7109375" style="1" customWidth="1"/>
-    <col min="68" max="68" width="6.7109375" style="1" customWidth="1"/>
-    <col min="69" max="69" width="6.5703125" style="1" customWidth="1"/>
-    <col min="70" max="70" width="7.140625" style="1" customWidth="1"/>
-    <col min="71" max="71" width="6.140625" style="1" customWidth="1"/>
-    <col min="72" max="72" width="7.7109375" style="1" customWidth="1"/>
-    <col min="73" max="73" width="6.7109375" style="1" customWidth="1"/>
-    <col min="74" max="74" width="6.5703125" style="1" customWidth="1"/>
-    <col min="75" max="75" width="7.140625" style="1" customWidth="1"/>
-    <col min="76" max="76" width="6.140625" style="1" customWidth="1"/>
-    <col min="77" max="77" width="7.7109375" style="1" customWidth="1"/>
-    <col min="78" max="78" width="6.7109375" style="1" customWidth="1"/>
-    <col min="79" max="79" width="6.5703125" style="1" customWidth="1"/>
-    <col min="80" max="80" width="7.140625" style="1" customWidth="1"/>
-    <col min="81" max="81" width="6.140625" style="1" customWidth="1"/>
-    <col min="82" max="82" width="7.7109375" style="1" customWidth="1"/>
-    <col min="83" max="83" width="6.7109375" style="1" customWidth="1"/>
-    <col min="84" max="84" width="6.5703125" style="1" customWidth="1"/>
-    <col min="85" max="85" width="7.140625" style="1" customWidth="1"/>
-    <col min="86" max="86" width="6.140625" style="1" customWidth="1"/>
-    <col min="87" max="87" width="7.7109375" style="1" customWidth="1"/>
-    <col min="88" max="88" width="6.7109375" style="1" customWidth="1"/>
-    <col min="89" max="89" width="6.5703125" style="1" customWidth="1"/>
-    <col min="90" max="90" width="7.140625" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.140625" style="1" customWidth="1"/>
-    <col min="92" max="92" width="7.7109375" style="1" customWidth="1"/>
-    <col min="93" max="93" width="6.7109375" style="1" customWidth="1"/>
-    <col min="94" max="94" width="6.5703125" style="1" customWidth="1"/>
-    <col min="95" max="95" width="7.140625" style="1" customWidth="1"/>
-    <col min="96" max="96" width="6.140625" style="1" customWidth="1"/>
-    <col min="97" max="97" width="7.7109375" style="1" customWidth="1"/>
-    <col min="98" max="98" width="6.7109375" style="1" customWidth="1"/>
-    <col min="99" max="99" width="6.5703125" style="1" customWidth="1"/>
-    <col min="100" max="100" width="7.140625" style="1" customWidth="1"/>
-    <col min="101" max="101" width="6.140625" style="1" customWidth="1"/>
-    <col min="102" max="102" width="7.7109375" style="1" customWidth="1"/>
-    <col min="103" max="103" width="6.7109375" style="1" customWidth="1"/>
-    <col min="104" max="104" width="6.5703125" style="1" customWidth="1"/>
-    <col min="105" max="105" width="7.140625" style="1" customWidth="1"/>
-    <col min="106" max="106" width="6.140625" style="1" customWidth="1"/>
-    <col min="107" max="107" width="7.7109375" style="1" customWidth="1"/>
-    <col min="108" max="108" width="6.7109375" style="1" customWidth="1"/>
-    <col min="109" max="109" width="6.5703125" style="1" customWidth="1"/>
-    <col min="110" max="110" width="7.140625" style="1" customWidth="1"/>
-    <col min="111" max="111" width="6.140625" style="1" customWidth="1"/>
-    <col min="112" max="112" width="7.7109375" style="1" customWidth="1"/>
-    <col min="113" max="113" width="6.7109375" style="1" customWidth="1"/>
-    <col min="114" max="114" width="6.5703125" style="1" customWidth="1"/>
-    <col min="115" max="115" width="7.140625" style="1" customWidth="1"/>
-    <col min="116" max="116" width="6.140625" style="1" customWidth="1"/>
-    <col min="117" max="117" width="7.7109375" style="1" customWidth="1"/>
-    <col min="118" max="118" width="6.7109375" style="1" customWidth="1"/>
-    <col min="119" max="119" width="6.5703125" style="1" customWidth="1"/>
-    <col min="120" max="120" width="7.140625" style="1" customWidth="1"/>
-    <col min="121" max="121" width="6.140625" style="1" customWidth="1"/>
-    <col min="122" max="122" width="7.7109375" style="1" customWidth="1"/>
-    <col min="123" max="123" width="6.7109375" style="1" customWidth="1"/>
-    <col min="124" max="124" width="6.5703125" style="1" customWidth="1"/>
-    <col min="125" max="125" width="7.140625" style="1" customWidth="1"/>
-    <col min="126" max="126" width="6.140625" style="1" customWidth="1"/>
-    <col min="127" max="127" width="7.7109375" style="1" customWidth="1"/>
-    <col min="128" max="128" width="6.7109375" style="1" customWidth="1"/>
-    <col min="129" max="129" width="6.5703125" style="1" customWidth="1"/>
-    <col min="130" max="130" width="7.140625" style="1" customWidth="1"/>
-    <col min="131" max="131" width="6.140625" style="1" customWidth="1"/>
-    <col min="132" max="132" width="7.7109375" style="1" customWidth="1"/>
-    <col min="133" max="133" width="6.7109375" style="1" customWidth="1"/>
-    <col min="134" max="134" width="6.5703125" style="1" customWidth="1"/>
-    <col min="135" max="135" width="7.140625" style="1" customWidth="1"/>
-    <col min="136" max="136" width="6.140625" style="1" customWidth="1"/>
-    <col min="137" max="137" width="7.7109375" style="1" customWidth="1"/>
-    <col min="138" max="138" width="6.7109375" style="1" customWidth="1"/>
-    <col min="139" max="139" width="6.5703125" style="1" customWidth="1"/>
-    <col min="140" max="140" width="7.140625" style="1" customWidth="1"/>
-    <col min="141" max="141" width="6.140625" style="1" customWidth="1"/>
-    <col min="142" max="142" width="7.7109375" style="1" customWidth="1"/>
-    <col min="143" max="143" width="6.7109375" style="1" customWidth="1"/>
-    <col min="144" max="144" width="6.5703125" style="1" customWidth="1"/>
-    <col min="145" max="145" width="7.140625" style="1" customWidth="1"/>
-    <col min="146" max="146" width="6.140625" style="1" customWidth="1"/>
-    <col min="147" max="147" width="7.7109375" style="1" customWidth="1"/>
-    <col min="148" max="155" width="9.140625" style="1"/>
-    <col min="156" max="156" width="20.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.59765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.73046875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.59765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.73046875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.3984375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.59765625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.1328125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1328125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.73046875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.73046875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.59765625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.1328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1328125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="7.73046875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6.73046875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="6.59765625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="7.1328125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="6.1328125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="7.73046875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="6.73046875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="6.59765625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="7.1328125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="6.1328125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="7.73046875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="6.73046875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="6.59765625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="7.1328125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="6.1328125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="7.73046875" style="1" customWidth="1"/>
+    <col min="43" max="43" width="6.73046875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="6.59765625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="7.1328125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="6.1328125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="7.73046875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="6.73046875" style="1" customWidth="1"/>
+    <col min="49" max="49" width="6.59765625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="7.1328125" style="1" customWidth="1"/>
+    <col min="51" max="51" width="6.1328125" style="1" customWidth="1"/>
+    <col min="52" max="52" width="7.73046875" style="1" customWidth="1"/>
+    <col min="53" max="53" width="6.73046875" style="2" customWidth="1"/>
+    <col min="54" max="54" width="6.59765625" style="1" customWidth="1"/>
+    <col min="55" max="55" width="7.1328125" style="1" customWidth="1"/>
+    <col min="56" max="56" width="6.1328125" style="1" customWidth="1"/>
+    <col min="57" max="57" width="7.73046875" style="1" customWidth="1"/>
+    <col min="58" max="58" width="6.73046875" style="1" customWidth="1"/>
+    <col min="59" max="59" width="6.59765625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="7.1328125" style="1" customWidth="1"/>
+    <col min="61" max="61" width="6.1328125" style="1" customWidth="1"/>
+    <col min="62" max="62" width="7.73046875" style="1" customWidth="1"/>
+    <col min="63" max="63" width="6.73046875" style="1" customWidth="1"/>
+    <col min="64" max="64" width="6.59765625" style="1" customWidth="1"/>
+    <col min="65" max="65" width="7.1328125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="6.1328125" style="1" customWidth="1"/>
+    <col min="67" max="67" width="7.73046875" style="1" customWidth="1"/>
+    <col min="68" max="68" width="6.73046875" style="1" customWidth="1"/>
+    <col min="69" max="69" width="6.59765625" style="1" customWidth="1"/>
+    <col min="70" max="70" width="7.1328125" style="1" customWidth="1"/>
+    <col min="71" max="71" width="6.1328125" style="1" customWidth="1"/>
+    <col min="72" max="72" width="7.73046875" style="1" customWidth="1"/>
+    <col min="73" max="73" width="6.73046875" style="1" customWidth="1"/>
+    <col min="74" max="74" width="6.59765625" style="1" customWidth="1"/>
+    <col min="75" max="75" width="7.1328125" style="1" customWidth="1"/>
+    <col min="76" max="76" width="6.1328125" style="1" customWidth="1"/>
+    <col min="77" max="77" width="7.73046875" style="1" customWidth="1"/>
+    <col min="78" max="78" width="6.73046875" style="1" customWidth="1"/>
+    <col min="79" max="79" width="6.59765625" style="1" customWidth="1"/>
+    <col min="80" max="80" width="7.1328125" style="1" customWidth="1"/>
+    <col min="81" max="81" width="6.1328125" style="1" customWidth="1"/>
+    <col min="82" max="82" width="7.73046875" style="1" customWidth="1"/>
+    <col min="83" max="83" width="6.73046875" style="1" customWidth="1"/>
+    <col min="84" max="84" width="6.59765625" style="1" customWidth="1"/>
+    <col min="85" max="85" width="7.1328125" style="1" customWidth="1"/>
+    <col min="86" max="86" width="6.1328125" style="1" customWidth="1"/>
+    <col min="87" max="87" width="7.73046875" style="1" customWidth="1"/>
+    <col min="88" max="88" width="6.73046875" style="1" customWidth="1"/>
+    <col min="89" max="89" width="6.59765625" style="1" customWidth="1"/>
+    <col min="90" max="90" width="7.1328125" style="1" customWidth="1"/>
+    <col min="91" max="91" width="6.1328125" style="1" customWidth="1"/>
+    <col min="92" max="92" width="7.73046875" style="1" customWidth="1"/>
+    <col min="93" max="93" width="6.73046875" style="1" customWidth="1"/>
+    <col min="94" max="94" width="6.59765625" style="1" customWidth="1"/>
+    <col min="95" max="95" width="7.1328125" style="1" customWidth="1"/>
+    <col min="96" max="96" width="6.1328125" style="1" customWidth="1"/>
+    <col min="97" max="97" width="7.73046875" style="1" customWidth="1"/>
+    <col min="98" max="98" width="6.73046875" style="1" customWidth="1"/>
+    <col min="99" max="99" width="6.59765625" style="1" customWidth="1"/>
+    <col min="100" max="100" width="7.1328125" style="1" customWidth="1"/>
+    <col min="101" max="101" width="6.1328125" style="1" customWidth="1"/>
+    <col min="102" max="102" width="7.73046875" style="1" customWidth="1"/>
+    <col min="103" max="103" width="6.73046875" style="1" customWidth="1"/>
+    <col min="104" max="104" width="6.59765625" style="1" customWidth="1"/>
+    <col min="105" max="105" width="7.1328125" style="1" customWidth="1"/>
+    <col min="106" max="106" width="6.1328125" style="1" customWidth="1"/>
+    <col min="107" max="107" width="7.73046875" style="1" customWidth="1"/>
+    <col min="108" max="108" width="6.73046875" style="1" customWidth="1"/>
+    <col min="109" max="109" width="6.59765625" style="1" customWidth="1"/>
+    <col min="110" max="110" width="7.1328125" style="1" customWidth="1"/>
+    <col min="111" max="111" width="6.1328125" style="1" customWidth="1"/>
+    <col min="112" max="112" width="7.73046875" style="1" customWidth="1"/>
+    <col min="113" max="113" width="6.73046875" style="1" customWidth="1"/>
+    <col min="114" max="114" width="6.59765625" style="1" customWidth="1"/>
+    <col min="115" max="115" width="7.1328125" style="1" customWidth="1"/>
+    <col min="116" max="116" width="6.1328125" style="1" customWidth="1"/>
+    <col min="117" max="117" width="7.73046875" style="1" customWidth="1"/>
+    <col min="118" max="118" width="6.73046875" style="1" customWidth="1"/>
+    <col min="119" max="119" width="6.59765625" style="1" customWidth="1"/>
+    <col min="120" max="120" width="7.1328125" style="1" customWidth="1"/>
+    <col min="121" max="121" width="6.1328125" style="1" customWidth="1"/>
+    <col min="122" max="122" width="7.73046875" style="1" customWidth="1"/>
+    <col min="123" max="123" width="6.73046875" style="1" customWidth="1"/>
+    <col min="124" max="124" width="6.59765625" style="1" customWidth="1"/>
+    <col min="125" max="125" width="7.1328125" style="1" customWidth="1"/>
+    <col min="126" max="126" width="6.1328125" style="1" customWidth="1"/>
+    <col min="127" max="127" width="7.73046875" style="1" customWidth="1"/>
+    <col min="128" max="128" width="6.73046875" style="1" customWidth="1"/>
+    <col min="129" max="129" width="6.59765625" style="1" customWidth="1"/>
+    <col min="130" max="130" width="7.1328125" style="1" customWidth="1"/>
+    <col min="131" max="131" width="6.1328125" style="1" customWidth="1"/>
+    <col min="132" max="132" width="7.73046875" style="1" customWidth="1"/>
+    <col min="133" max="133" width="6.73046875" style="1" customWidth="1"/>
+    <col min="134" max="134" width="6.59765625" style="1" customWidth="1"/>
+    <col min="135" max="135" width="7.1328125" style="1" customWidth="1"/>
+    <col min="136" max="136" width="6.1328125" style="1" customWidth="1"/>
+    <col min="137" max="137" width="7.73046875" style="1" customWidth="1"/>
+    <col min="138" max="138" width="6.73046875" style="1" customWidth="1"/>
+    <col min="139" max="139" width="6.59765625" style="1" customWidth="1"/>
+    <col min="140" max="140" width="7.1328125" style="1" customWidth="1"/>
+    <col min="141" max="141" width="6.1328125" style="1" customWidth="1"/>
+    <col min="142" max="142" width="7.73046875" style="1" customWidth="1"/>
+    <col min="143" max="143" width="6.73046875" style="1" customWidth="1"/>
+    <col min="144" max="144" width="6.59765625" style="1" customWidth="1"/>
+    <col min="145" max="145" width="7.1328125" style="1" customWidth="1"/>
+    <col min="146" max="146" width="6.1328125" style="1" customWidth="1"/>
+    <col min="147" max="147" width="7.73046875" style="1" customWidth="1"/>
+    <col min="148" max="155" width="9.1328125" style="1"/>
+    <col min="156" max="156" width="20.73046875" style="2" customWidth="1"/>
     <col min="157" max="157" width="18" style="1" customWidth="1"/>
-    <col min="158" max="158" width="18.28515625" style="1" customWidth="1"/>
-    <col min="159" max="159" width="27.7109375" style="1" customWidth="1"/>
-    <col min="160" max="16384" width="9.140625" style="1"/>
+    <col min="158" max="158" width="18.265625" style="1" customWidth="1"/>
+    <col min="159" max="159" width="27.73046875" style="1" customWidth="1"/>
+    <col min="160" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:159" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20" t="s">
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20" t="s">
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20" t="s">
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="26" t="s">
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="26"/>
-      <c r="BF1" s="26" t="s">
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="BG1" s="26"/>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="26"/>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="26" t="s">
+      <c r="BL1" s="24"/>
+      <c r="BM1" s="24"/>
+      <c r="BN1" s="24"/>
+      <c r="BO1" s="24"/>
+      <c r="BP1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="BL1" s="26"/>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="26" t="s">
+      <c r="BQ1" s="24"/>
+      <c r="BR1" s="24"/>
+      <c r="BS1" s="24"/>
+      <c r="BT1" s="24"/>
+      <c r="BU1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="BQ1" s="26"/>
-      <c r="BR1" s="26"/>
-      <c r="BS1" s="26"/>
-      <c r="BT1" s="26"/>
-      <c r="BU1" s="26" t="s">
+      <c r="BV1" s="24"/>
+      <c r="BW1" s="24"/>
+      <c r="BX1" s="24"/>
+      <c r="BY1" s="24"/>
+      <c r="BZ1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="BV1" s="26"/>
-      <c r="BW1" s="26"/>
-      <c r="BX1" s="26"/>
-      <c r="BY1" s="26"/>
-      <c r="BZ1" s="26" t="s">
+      <c r="CA1" s="24"/>
+      <c r="CB1" s="24"/>
+      <c r="CC1" s="24"/>
+      <c r="CD1" s="24"/>
+      <c r="CE1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="CA1" s="26"/>
-      <c r="CB1" s="26"/>
-      <c r="CC1" s="26"/>
-      <c r="CD1" s="26"/>
-      <c r="CE1" s="26" t="s">
+      <c r="CF1" s="24"/>
+      <c r="CG1" s="24"/>
+      <c r="CH1" s="24"/>
+      <c r="CI1" s="24"/>
+      <c r="CJ1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="CF1" s="26"/>
-      <c r="CG1" s="26"/>
-      <c r="CH1" s="26"/>
-      <c r="CI1" s="26"/>
-      <c r="CJ1" s="26" t="s">
+      <c r="CK1" s="24"/>
+      <c r="CL1" s="24"/>
+      <c r="CM1" s="24"/>
+      <c r="CN1" s="24"/>
+      <c r="CO1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="CK1" s="26"/>
-      <c r="CL1" s="26"/>
-      <c r="CM1" s="26"/>
-      <c r="CN1" s="26"/>
-      <c r="CO1" s="26" t="s">
+      <c r="CP1" s="24"/>
+      <c r="CQ1" s="24"/>
+      <c r="CR1" s="24"/>
+      <c r="CS1" s="24"/>
+      <c r="CT1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="CP1" s="26"/>
-      <c r="CQ1" s="26"/>
-      <c r="CR1" s="26"/>
-      <c r="CS1" s="26"/>
-      <c r="CT1" s="26" t="s">
+      <c r="CU1" s="24"/>
+      <c r="CV1" s="24"/>
+      <c r="CW1" s="24"/>
+      <c r="CX1" s="24"/>
+      <c r="CY1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="CU1" s="26"/>
-      <c r="CV1" s="26"/>
-      <c r="CW1" s="26"/>
-      <c r="CX1" s="26"/>
-      <c r="CY1" s="25" t="s">
+      <c r="CZ1" s="23"/>
+      <c r="DA1" s="23"/>
+      <c r="DB1" s="23"/>
+      <c r="DC1" s="23"/>
+      <c r="DD1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="CZ1" s="25"/>
-      <c r="DA1" s="25"/>
-      <c r="DB1" s="25"/>
-      <c r="DC1" s="25"/>
-      <c r="DD1" s="25" t="s">
+      <c r="DE1" s="23"/>
+      <c r="DF1" s="23"/>
+      <c r="DG1" s="23"/>
+      <c r="DH1" s="23"/>
+      <c r="DI1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="DJ1" s="23"/>
+      <c r="DK1" s="23"/>
+      <c r="DL1" s="23"/>
+      <c r="DM1" s="23"/>
+      <c r="DN1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="DE1" s="25"/>
-      <c r="DF1" s="25"/>
-      <c r="DG1" s="25"/>
-      <c r="DH1" s="25"/>
-      <c r="DI1" s="25" t="s">
+      <c r="DO1" s="23"/>
+      <c r="DP1" s="23"/>
+      <c r="DQ1" s="23"/>
+      <c r="DR1" s="23"/>
+      <c r="DS1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="DJ1" s="25"/>
-      <c r="DK1" s="25"/>
-      <c r="DL1" s="25"/>
-      <c r="DM1" s="25"/>
-      <c r="DN1" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="DO1" s="25"/>
-      <c r="DP1" s="25"/>
-      <c r="DQ1" s="25"/>
-      <c r="DR1" s="25"/>
-      <c r="DS1" s="25" t="s">
+      <c r="DT1" s="23"/>
+      <c r="DU1" s="23"/>
+      <c r="DV1" s="23"/>
+      <c r="DW1" s="23"/>
+      <c r="DX1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="DT1" s="25"/>
-      <c r="DU1" s="25"/>
-      <c r="DV1" s="25"/>
-      <c r="DW1" s="25"/>
-      <c r="DX1" s="25" t="s">
+      <c r="DY1" s="23"/>
+      <c r="DZ1" s="23"/>
+      <c r="EA1" s="23"/>
+      <c r="EB1" s="23"/>
+      <c r="EC1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="DY1" s="25"/>
-      <c r="DZ1" s="25"/>
-      <c r="EA1" s="25"/>
-      <c r="EB1" s="25"/>
-      <c r="EC1" s="25" t="s">
+      <c r="ED1" s="23"/>
+      <c r="EE1" s="23"/>
+      <c r="EF1" s="23"/>
+      <c r="EG1" s="23"/>
+      <c r="EH1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="ED1" s="25"/>
-      <c r="EE1" s="25"/>
-      <c r="EF1" s="25"/>
-      <c r="EG1" s="25"/>
-      <c r="EH1" s="25" t="s">
+      <c r="EI1" s="23"/>
+      <c r="EJ1" s="23"/>
+      <c r="EK1" s="23"/>
+      <c r="EL1" s="23"/>
+      <c r="EM1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="EI1" s="25"/>
-      <c r="EJ1" s="25"/>
-      <c r="EK1" s="25"/>
-      <c r="EL1" s="25"/>
-      <c r="EM1" s="25" t="s">
+      <c r="EN1" s="23"/>
+      <c r="EO1" s="23"/>
+      <c r="EP1" s="23"/>
+      <c r="EQ1" s="23"/>
+      <c r="ER1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="EN1" s="25"/>
-      <c r="EO1" s="25"/>
-      <c r="EP1" s="25"/>
-      <c r="EQ1" s="25"/>
-      <c r="ER1" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="ES1" s="27"/>
-      <c r="ET1" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="EU1" s="27"/>
-      <c r="EV1" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="EW1" s="27"/>
-      <c r="EX1" s="28" t="s">
+      <c r="ES1" s="21"/>
+      <c r="ET1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="EU1" s="21"/>
+      <c r="EV1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="EW1" s="21"/>
+      <c r="EX1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="EY1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="EY1" s="28" t="s">
+      <c r="EZ1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="EZ1" s="21" t="s">
+      <c r="FA1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="FA1" s="21" t="s">
+      <c r="FB1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="FB1" s="21" t="s">
+      <c r="FC1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="FC1" s="21" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="2" spans="1:159" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="21"/>
+    <row r="2" spans="1:159" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1685,48 +1685,48 @@
         <v>10</v>
       </c>
       <c r="ER2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="ES2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="ES2" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="ET2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="EU2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="EU2" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="EV2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="EW2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="EW2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="EX2" s="28"/>
-      <c r="EY2" s="28"/>
-      <c r="EZ2" s="21"/>
-      <c r="FA2" s="21"/>
-      <c r="FB2" s="21"/>
-      <c r="FC2" s="21"/>
+      <c r="EX2" s="22"/>
+      <c r="EY2" s="22"/>
+      <c r="EZ2" s="20"/>
+      <c r="FA2" s="20"/>
+      <c r="FB2" s="20"/>
+      <c r="FC2" s="20"/>
     </row>
-    <row r="3" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7">
         <v>172312001</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="3">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="FC3" s="6"/>
     </row>
-    <row r="4" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C4" s="7">
         <v>172312002</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="3">
@@ -2848,27 +2848,27 @@
         <v>Excellent</v>
       </c>
       <c r="FC4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>172312003</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="3">
@@ -3420,27 +3420,27 @@
         <v>Excellent</v>
       </c>
       <c r="FC5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>172312007</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="3">
@@ -3992,27 +3992,27 @@
         <v>Excellent</v>
       </c>
       <c r="FC6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>172312008</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="3">
@@ -4564,27 +4564,27 @@
         <v>Excellent</v>
       </c>
       <c r="FC7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7">
         <v>172312009</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3">
@@ -5136,15 +5136,15 @@
         <v>Excellent</v>
       </c>
       <c r="FC8" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7">
         <v>172312010</v>
@@ -5152,7 +5152,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="3">
@@ -5704,27 +5704,27 @@
         <v>Excellent</v>
       </c>
       <c r="FC9" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
         <v>172312011</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="3">
@@ -6277,12 +6277,12 @@
       </c>
       <c r="FC10" s="6"/>
     </row>
-    <row r="11" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7">
         <v>172312012</v>
@@ -6290,7 +6290,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="3">
@@ -6843,24 +6843,24 @@
       </c>
       <c r="FC11" s="6"/>
     </row>
-    <row r="12" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
         <v>172312014</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>75</v>
-      </c>
       <c r="F12" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="3">
@@ -7412,27 +7412,27 @@
         <v>Excellent</v>
       </c>
       <c r="FC12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>172312015</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="3">
@@ -7985,12 +7985,12 @@
       </c>
       <c r="FC13" s="6"/>
     </row>
-    <row r="14" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>172312016</v>
@@ -7998,7 +7998,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="3">
@@ -8551,24 +8551,24 @@
       </c>
       <c r="FC14" s="6"/>
     </row>
-    <row r="15" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="7">
         <v>172312017</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="3">
@@ -9121,24 +9121,24 @@
       </c>
       <c r="FC15" s="6"/>
     </row>
-    <row r="16" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7">
         <v>172312018</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>77</v>
-      </c>
       <c r="F16" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="3">
@@ -9690,42 +9690,14 @@
         <v>Excellent</v>
       </c>
       <c r="FC16" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="17" spans="41:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="41:41" x14ac:dyDescent="0.35">
       <c r="AO17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="FB1:FB2"/>
-    <mergeCell ref="FC1:FC2"/>
-    <mergeCell ref="ET1:EU1"/>
-    <mergeCell ref="EV1:EW1"/>
-    <mergeCell ref="EX1:EX2"/>
-    <mergeCell ref="EY1:EY2"/>
-    <mergeCell ref="EZ1:EZ2"/>
-    <mergeCell ref="FA1:FA2"/>
-    <mergeCell ref="EM1:EQ1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="ER1:ES1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
-    <mergeCell ref="EC1:EG1"/>
-    <mergeCell ref="EH1:EL1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="A1:A2"/>
@@ -9742,6 +9714,34 @@
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="EM1:EQ1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="ER1:ES1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="EC1:EG1"/>
+    <mergeCell ref="EH1:EL1"/>
+    <mergeCell ref="FB1:FB2"/>
+    <mergeCell ref="FC1:FC2"/>
+    <mergeCell ref="ET1:EU1"/>
+    <mergeCell ref="EV1:EW1"/>
+    <mergeCell ref="EX1:EX2"/>
+    <mergeCell ref="EY1:EY2"/>
+    <mergeCell ref="EZ1:EZ2"/>
+    <mergeCell ref="FA1:FA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/S1 Keperawatan/RPL/RPL 1/Transkip RPL 1.xlsx
+++ b/S1 Keperawatan/RPL/RPL 1/Transkip RPL 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBDE79D-F968-41EA-95CE-D83F6A56169A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DA2092-DB79-43D0-AC8B-BFB179EFCE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" xr2:uid="{C623B17B-F356-4211-B3E1-9052FF0B64E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C623B17B-F356-4211-B3E1-9052FF0B64E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Transkip" sheetId="1" r:id="rId1"/>
@@ -333,10 +333,10 @@
     <t>06 Oktober 2025</t>
   </si>
   <si>
-    <t>Pengaruh Pemberian Terapi Musik Terhadap Kecemasan Pasien Anak Toodler Usia 1-3 Tahun Pada Pemasangan Infus Di Ruang Lotus Rsbk Batam</t>
-  </si>
-  <si>
     <t>Dian Sukmadewi</t>
+  </si>
+  <si>
+    <t>Pengaruh Pemberian Terapi Musik Terhadap Kecemasan Pasien Anak Toodler Usia 1-3 Tahun Pada Pemasangan Infus Di Ruang Lotus Rsbk Batam</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -503,23 +503,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,6 +518,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,424 +847,424 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34956858-B69D-40A7-AE63-3928404750C8}">
   <dimension ref="A1:FC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CW19" sqref="CW19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="ET1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.86328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.265625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.265625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" style="16" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.59765625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.73046875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.59765625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.1328125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.73046875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.3984375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.59765625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.1328125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1328125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.73046875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.73046875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.59765625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.1328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1328125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="7.73046875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="6.73046875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="6.59765625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="7.1328125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="6.1328125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7.73046875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="6.73046875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="6.59765625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="7.1328125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="6.1328125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="7.73046875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="6.73046875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="6.59765625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="7.1328125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="6.1328125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="7.73046875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="6.73046875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="6.59765625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="7.1328125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="6.1328125" style="1" customWidth="1"/>
-    <col min="47" max="47" width="7.73046875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="6.73046875" style="1" customWidth="1"/>
-    <col min="49" max="49" width="6.59765625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="7.1328125" style="1" customWidth="1"/>
-    <col min="51" max="51" width="6.1328125" style="1" customWidth="1"/>
-    <col min="52" max="52" width="7.73046875" style="1" customWidth="1"/>
-    <col min="53" max="53" width="6.73046875" style="2" customWidth="1"/>
-    <col min="54" max="54" width="6.59765625" style="1" customWidth="1"/>
-    <col min="55" max="55" width="7.1328125" style="1" customWidth="1"/>
-    <col min="56" max="56" width="6.1328125" style="1" customWidth="1"/>
-    <col min="57" max="57" width="7.73046875" style="1" customWidth="1"/>
-    <col min="58" max="58" width="6.73046875" style="1" customWidth="1"/>
-    <col min="59" max="59" width="6.59765625" style="1" customWidth="1"/>
-    <col min="60" max="60" width="7.1328125" style="1" customWidth="1"/>
-    <col min="61" max="61" width="6.1328125" style="1" customWidth="1"/>
-    <col min="62" max="62" width="7.73046875" style="1" customWidth="1"/>
-    <col min="63" max="63" width="6.73046875" style="1" customWidth="1"/>
-    <col min="64" max="64" width="6.59765625" style="1" customWidth="1"/>
-    <col min="65" max="65" width="7.1328125" style="1" customWidth="1"/>
-    <col min="66" max="66" width="6.1328125" style="1" customWidth="1"/>
-    <col min="67" max="67" width="7.73046875" style="1" customWidth="1"/>
-    <col min="68" max="68" width="6.73046875" style="1" customWidth="1"/>
-    <col min="69" max="69" width="6.59765625" style="1" customWidth="1"/>
-    <col min="70" max="70" width="7.1328125" style="1" customWidth="1"/>
-    <col min="71" max="71" width="6.1328125" style="1" customWidth="1"/>
-    <col min="72" max="72" width="7.73046875" style="1" customWidth="1"/>
-    <col min="73" max="73" width="6.73046875" style="1" customWidth="1"/>
-    <col min="74" max="74" width="6.59765625" style="1" customWidth="1"/>
-    <col min="75" max="75" width="7.1328125" style="1" customWidth="1"/>
-    <col min="76" max="76" width="6.1328125" style="1" customWidth="1"/>
-    <col min="77" max="77" width="7.73046875" style="1" customWidth="1"/>
-    <col min="78" max="78" width="6.73046875" style="1" customWidth="1"/>
-    <col min="79" max="79" width="6.59765625" style="1" customWidth="1"/>
-    <col min="80" max="80" width="7.1328125" style="1" customWidth="1"/>
-    <col min="81" max="81" width="6.1328125" style="1" customWidth="1"/>
-    <col min="82" max="82" width="7.73046875" style="1" customWidth="1"/>
-    <col min="83" max="83" width="6.73046875" style="1" customWidth="1"/>
-    <col min="84" max="84" width="6.59765625" style="1" customWidth="1"/>
-    <col min="85" max="85" width="7.1328125" style="1" customWidth="1"/>
-    <col min="86" max="86" width="6.1328125" style="1" customWidth="1"/>
-    <col min="87" max="87" width="7.73046875" style="1" customWidth="1"/>
-    <col min="88" max="88" width="6.73046875" style="1" customWidth="1"/>
-    <col min="89" max="89" width="6.59765625" style="1" customWidth="1"/>
-    <col min="90" max="90" width="7.1328125" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.1328125" style="1" customWidth="1"/>
-    <col min="92" max="92" width="7.73046875" style="1" customWidth="1"/>
-    <col min="93" max="93" width="6.73046875" style="1" customWidth="1"/>
-    <col min="94" max="94" width="6.59765625" style="1" customWidth="1"/>
-    <col min="95" max="95" width="7.1328125" style="1" customWidth="1"/>
-    <col min="96" max="96" width="6.1328125" style="1" customWidth="1"/>
-    <col min="97" max="97" width="7.73046875" style="1" customWidth="1"/>
-    <col min="98" max="98" width="6.73046875" style="1" customWidth="1"/>
-    <col min="99" max="99" width="6.59765625" style="1" customWidth="1"/>
-    <col min="100" max="100" width="7.1328125" style="1" customWidth="1"/>
-    <col min="101" max="101" width="6.1328125" style="1" customWidth="1"/>
-    <col min="102" max="102" width="7.73046875" style="1" customWidth="1"/>
-    <col min="103" max="103" width="6.73046875" style="1" customWidth="1"/>
-    <col min="104" max="104" width="6.59765625" style="1" customWidth="1"/>
-    <col min="105" max="105" width="7.1328125" style="1" customWidth="1"/>
-    <col min="106" max="106" width="6.1328125" style="1" customWidth="1"/>
-    <col min="107" max="107" width="7.73046875" style="1" customWidth="1"/>
-    <col min="108" max="108" width="6.73046875" style="1" customWidth="1"/>
-    <col min="109" max="109" width="6.59765625" style="1" customWidth="1"/>
-    <col min="110" max="110" width="7.1328125" style="1" customWidth="1"/>
-    <col min="111" max="111" width="6.1328125" style="1" customWidth="1"/>
-    <col min="112" max="112" width="7.73046875" style="1" customWidth="1"/>
-    <col min="113" max="113" width="6.73046875" style="1" customWidth="1"/>
-    <col min="114" max="114" width="6.59765625" style="1" customWidth="1"/>
-    <col min="115" max="115" width="7.1328125" style="1" customWidth="1"/>
-    <col min="116" max="116" width="6.1328125" style="1" customWidth="1"/>
-    <col min="117" max="117" width="7.73046875" style="1" customWidth="1"/>
-    <col min="118" max="118" width="6.73046875" style="1" customWidth="1"/>
-    <col min="119" max="119" width="6.59765625" style="1" customWidth="1"/>
-    <col min="120" max="120" width="7.1328125" style="1" customWidth="1"/>
-    <col min="121" max="121" width="6.1328125" style="1" customWidth="1"/>
-    <col min="122" max="122" width="7.73046875" style="1" customWidth="1"/>
-    <col min="123" max="123" width="6.73046875" style="1" customWidth="1"/>
-    <col min="124" max="124" width="6.59765625" style="1" customWidth="1"/>
-    <col min="125" max="125" width="7.1328125" style="1" customWidth="1"/>
-    <col min="126" max="126" width="6.1328125" style="1" customWidth="1"/>
-    <col min="127" max="127" width="7.73046875" style="1" customWidth="1"/>
-    <col min="128" max="128" width="6.73046875" style="1" customWidth="1"/>
-    <col min="129" max="129" width="6.59765625" style="1" customWidth="1"/>
-    <col min="130" max="130" width="7.1328125" style="1" customWidth="1"/>
-    <col min="131" max="131" width="6.1328125" style="1" customWidth="1"/>
-    <col min="132" max="132" width="7.73046875" style="1" customWidth="1"/>
-    <col min="133" max="133" width="6.73046875" style="1" customWidth="1"/>
-    <col min="134" max="134" width="6.59765625" style="1" customWidth="1"/>
-    <col min="135" max="135" width="7.1328125" style="1" customWidth="1"/>
-    <col min="136" max="136" width="6.1328125" style="1" customWidth="1"/>
-    <col min="137" max="137" width="7.73046875" style="1" customWidth="1"/>
-    <col min="138" max="138" width="6.73046875" style="1" customWidth="1"/>
-    <col min="139" max="139" width="6.59765625" style="1" customWidth="1"/>
-    <col min="140" max="140" width="7.1328125" style="1" customWidth="1"/>
-    <col min="141" max="141" width="6.1328125" style="1" customWidth="1"/>
-    <col min="142" max="142" width="7.73046875" style="1" customWidth="1"/>
-    <col min="143" max="143" width="6.73046875" style="1" customWidth="1"/>
-    <col min="144" max="144" width="6.59765625" style="1" customWidth="1"/>
-    <col min="145" max="145" width="7.1328125" style="1" customWidth="1"/>
-    <col min="146" max="146" width="6.1328125" style="1" customWidth="1"/>
-    <col min="147" max="147" width="7.73046875" style="1" customWidth="1"/>
-    <col min="148" max="155" width="9.1328125" style="1"/>
-    <col min="156" max="156" width="20.73046875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="6.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="7.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="6.140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="6.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="6.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="7.140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="6.140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="7.7109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="6.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="6.5703125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="7.140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="6.140625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="7.7109375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="6.7109375" style="1" customWidth="1"/>
+    <col min="44" max="44" width="6.5703125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="7.140625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="6.140625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="7.7109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="6.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="6.5703125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="7.140625" style="1" customWidth="1"/>
+    <col min="51" max="51" width="6.140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="7.7109375" style="1" customWidth="1"/>
+    <col min="53" max="53" width="6.7109375" style="2" customWidth="1"/>
+    <col min="54" max="54" width="6.5703125" style="1" customWidth="1"/>
+    <col min="55" max="55" width="7.140625" style="1" customWidth="1"/>
+    <col min="56" max="56" width="6.140625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="7.7109375" style="1" customWidth="1"/>
+    <col min="58" max="58" width="6.7109375" style="1" customWidth="1"/>
+    <col min="59" max="59" width="6.5703125" style="1" customWidth="1"/>
+    <col min="60" max="60" width="7.140625" style="1" customWidth="1"/>
+    <col min="61" max="61" width="6.140625" style="1" customWidth="1"/>
+    <col min="62" max="62" width="7.7109375" style="1" customWidth="1"/>
+    <col min="63" max="63" width="6.7109375" style="1" customWidth="1"/>
+    <col min="64" max="64" width="6.5703125" style="1" customWidth="1"/>
+    <col min="65" max="65" width="7.140625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="6.140625" style="1" customWidth="1"/>
+    <col min="67" max="67" width="7.7109375" style="1" customWidth="1"/>
+    <col min="68" max="68" width="6.7109375" style="1" customWidth="1"/>
+    <col min="69" max="69" width="6.5703125" style="1" customWidth="1"/>
+    <col min="70" max="70" width="7.140625" style="1" customWidth="1"/>
+    <col min="71" max="71" width="6.140625" style="1" customWidth="1"/>
+    <col min="72" max="72" width="7.7109375" style="1" customWidth="1"/>
+    <col min="73" max="73" width="6.7109375" style="1" customWidth="1"/>
+    <col min="74" max="74" width="6.5703125" style="1" customWidth="1"/>
+    <col min="75" max="75" width="7.140625" style="1" customWidth="1"/>
+    <col min="76" max="76" width="6.140625" style="1" customWidth="1"/>
+    <col min="77" max="77" width="7.7109375" style="1" customWidth="1"/>
+    <col min="78" max="78" width="6.7109375" style="1" customWidth="1"/>
+    <col min="79" max="79" width="6.5703125" style="1" customWidth="1"/>
+    <col min="80" max="80" width="7.140625" style="1" customWidth="1"/>
+    <col min="81" max="81" width="6.140625" style="1" customWidth="1"/>
+    <col min="82" max="82" width="7.7109375" style="1" customWidth="1"/>
+    <col min="83" max="83" width="6.7109375" style="1" customWidth="1"/>
+    <col min="84" max="84" width="6.5703125" style="1" customWidth="1"/>
+    <col min="85" max="85" width="7.140625" style="1" customWidth="1"/>
+    <col min="86" max="86" width="6.140625" style="1" customWidth="1"/>
+    <col min="87" max="87" width="7.7109375" style="1" customWidth="1"/>
+    <col min="88" max="88" width="6.7109375" style="1" customWidth="1"/>
+    <col min="89" max="89" width="6.5703125" style="1" customWidth="1"/>
+    <col min="90" max="90" width="7.140625" style="1" customWidth="1"/>
+    <col min="91" max="91" width="6.140625" style="1" customWidth="1"/>
+    <col min="92" max="92" width="7.7109375" style="1" customWidth="1"/>
+    <col min="93" max="93" width="6.7109375" style="1" customWidth="1"/>
+    <col min="94" max="94" width="6.5703125" style="1" customWidth="1"/>
+    <col min="95" max="95" width="7.140625" style="1" customWidth="1"/>
+    <col min="96" max="96" width="6.140625" style="1" customWidth="1"/>
+    <col min="97" max="97" width="7.7109375" style="1" customWidth="1"/>
+    <col min="98" max="98" width="6.7109375" style="1" customWidth="1"/>
+    <col min="99" max="99" width="6.5703125" style="1" customWidth="1"/>
+    <col min="100" max="100" width="7.140625" style="1" customWidth="1"/>
+    <col min="101" max="101" width="6.140625" style="1" customWidth="1"/>
+    <col min="102" max="102" width="7.7109375" style="1" customWidth="1"/>
+    <col min="103" max="103" width="6.7109375" style="1" customWidth="1"/>
+    <col min="104" max="104" width="6.5703125" style="1" customWidth="1"/>
+    <col min="105" max="105" width="7.140625" style="1" customWidth="1"/>
+    <col min="106" max="106" width="6.140625" style="1" customWidth="1"/>
+    <col min="107" max="107" width="7.7109375" style="1" customWidth="1"/>
+    <col min="108" max="108" width="6.7109375" style="1" customWidth="1"/>
+    <col min="109" max="109" width="6.5703125" style="1" customWidth="1"/>
+    <col min="110" max="110" width="7.140625" style="1" customWidth="1"/>
+    <col min="111" max="111" width="6.140625" style="1" customWidth="1"/>
+    <col min="112" max="112" width="7.7109375" style="1" customWidth="1"/>
+    <col min="113" max="113" width="6.7109375" style="1" customWidth="1"/>
+    <col min="114" max="114" width="6.5703125" style="1" customWidth="1"/>
+    <col min="115" max="115" width="7.140625" style="1" customWidth="1"/>
+    <col min="116" max="116" width="6.140625" style="1" customWidth="1"/>
+    <col min="117" max="117" width="7.7109375" style="1" customWidth="1"/>
+    <col min="118" max="118" width="6.7109375" style="1" customWidth="1"/>
+    <col min="119" max="119" width="6.5703125" style="1" customWidth="1"/>
+    <col min="120" max="120" width="7.140625" style="1" customWidth="1"/>
+    <col min="121" max="121" width="6.140625" style="1" customWidth="1"/>
+    <col min="122" max="122" width="7.7109375" style="1" customWidth="1"/>
+    <col min="123" max="123" width="6.7109375" style="1" customWidth="1"/>
+    <col min="124" max="124" width="6.5703125" style="1" customWidth="1"/>
+    <col min="125" max="125" width="7.140625" style="1" customWidth="1"/>
+    <col min="126" max="126" width="6.140625" style="1" customWidth="1"/>
+    <col min="127" max="127" width="7.7109375" style="1" customWidth="1"/>
+    <col min="128" max="128" width="6.7109375" style="1" customWidth="1"/>
+    <col min="129" max="129" width="6.5703125" style="1" customWidth="1"/>
+    <col min="130" max="130" width="7.140625" style="1" customWidth="1"/>
+    <col min="131" max="131" width="6.140625" style="1" customWidth="1"/>
+    <col min="132" max="132" width="7.7109375" style="1" customWidth="1"/>
+    <col min="133" max="133" width="6.7109375" style="1" customWidth="1"/>
+    <col min="134" max="134" width="6.5703125" style="1" customWidth="1"/>
+    <col min="135" max="135" width="7.140625" style="1" customWidth="1"/>
+    <col min="136" max="136" width="6.140625" style="1" customWidth="1"/>
+    <col min="137" max="137" width="7.7109375" style="1" customWidth="1"/>
+    <col min="138" max="138" width="6.7109375" style="1" customWidth="1"/>
+    <col min="139" max="139" width="6.5703125" style="1" customWidth="1"/>
+    <col min="140" max="140" width="7.140625" style="1" customWidth="1"/>
+    <col min="141" max="141" width="6.140625" style="1" customWidth="1"/>
+    <col min="142" max="142" width="7.7109375" style="1" customWidth="1"/>
+    <col min="143" max="143" width="6.7109375" style="1" customWidth="1"/>
+    <col min="144" max="144" width="6.5703125" style="1" customWidth="1"/>
+    <col min="145" max="145" width="7.140625" style="1" customWidth="1"/>
+    <col min="146" max="146" width="6.140625" style="1" customWidth="1"/>
+    <col min="147" max="147" width="7.7109375" style="1" customWidth="1"/>
+    <col min="148" max="155" width="9.140625" style="1"/>
+    <col min="156" max="156" width="20.7109375" style="2" customWidth="1"/>
     <col min="157" max="157" width="18" style="1" customWidth="1"/>
-    <col min="158" max="158" width="18.265625" style="1" customWidth="1"/>
-    <col min="159" max="159" width="27.73046875" style="1" customWidth="1"/>
-    <col min="160" max="16384" width="9.1328125" style="1"/>
+    <col min="158" max="158" width="18.28515625" style="1" customWidth="1"/>
+    <col min="159" max="159" width="27.7109375" style="1" customWidth="1"/>
+    <col min="160" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="27" t="s">
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25" t="s">
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25" t="s">
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25" t="s">
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25" t="s">
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25" t="s">
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25" t="s">
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="24" t="s">
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24" t="s">
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+      <c r="BD1" s="26"/>
+      <c r="BE1" s="26"/>
+      <c r="BF1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24" t="s">
+      <c r="BG1" s="26"/>
+      <c r="BH1" s="26"/>
+      <c r="BI1" s="26"/>
+      <c r="BJ1" s="26"/>
+      <c r="BK1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="BL1" s="24"/>
-      <c r="BM1" s="24"/>
-      <c r="BN1" s="24"/>
-      <c r="BO1" s="24"/>
-      <c r="BP1" s="24" t="s">
+      <c r="BL1" s="26"/>
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="24"/>
-      <c r="BS1" s="24"/>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="24" t="s">
+      <c r="BQ1" s="26"/>
+      <c r="BR1" s="26"/>
+      <c r="BS1" s="26"/>
+      <c r="BT1" s="26"/>
+      <c r="BU1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BV1" s="24"/>
-      <c r="BW1" s="24"/>
-      <c r="BX1" s="24"/>
-      <c r="BY1" s="24"/>
-      <c r="BZ1" s="24" t="s">
+      <c r="BV1" s="26"/>
+      <c r="BW1" s="26"/>
+      <c r="BX1" s="26"/>
+      <c r="BY1" s="26"/>
+      <c r="BZ1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="CA1" s="24"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="24"/>
-      <c r="CE1" s="24" t="s">
+      <c r="CA1" s="26"/>
+      <c r="CB1" s="26"/>
+      <c r="CC1" s="26"/>
+      <c r="CD1" s="26"/>
+      <c r="CE1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-      <c r="CH1" s="24"/>
-      <c r="CI1" s="24"/>
-      <c r="CJ1" s="24" t="s">
+      <c r="CF1" s="26"/>
+      <c r="CG1" s="26"/>
+      <c r="CH1" s="26"/>
+      <c r="CI1" s="26"/>
+      <c r="CJ1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="CK1" s="24"/>
-      <c r="CL1" s="24"/>
-      <c r="CM1" s="24"/>
-      <c r="CN1" s="24"/>
-      <c r="CO1" s="24" t="s">
+      <c r="CK1" s="26"/>
+      <c r="CL1" s="26"/>
+      <c r="CM1" s="26"/>
+      <c r="CN1" s="26"/>
+      <c r="CO1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="CP1" s="24"/>
-      <c r="CQ1" s="24"/>
-      <c r="CR1" s="24"/>
-      <c r="CS1" s="24"/>
-      <c r="CT1" s="24" t="s">
+      <c r="CP1" s="26"/>
+      <c r="CQ1" s="26"/>
+      <c r="CR1" s="26"/>
+      <c r="CS1" s="26"/>
+      <c r="CT1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="CU1" s="24"/>
-      <c r="CV1" s="24"/>
-      <c r="CW1" s="24"/>
-      <c r="CX1" s="24"/>
-      <c r="CY1" s="23" t="s">
+      <c r="CU1" s="26"/>
+      <c r="CV1" s="26"/>
+      <c r="CW1" s="26"/>
+      <c r="CX1" s="26"/>
+      <c r="CY1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="CZ1" s="23"/>
-      <c r="DA1" s="23"/>
-      <c r="DB1" s="23"/>
-      <c r="DC1" s="23"/>
-      <c r="DD1" s="23" t="s">
+      <c r="CZ1" s="25"/>
+      <c r="DA1" s="25"/>
+      <c r="DB1" s="25"/>
+      <c r="DC1" s="25"/>
+      <c r="DD1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="DE1" s="23"/>
-      <c r="DF1" s="23"/>
-      <c r="DG1" s="23"/>
-      <c r="DH1" s="23"/>
-      <c r="DI1" s="23" t="s">
+      <c r="DE1" s="25"/>
+      <c r="DF1" s="25"/>
+      <c r="DG1" s="25"/>
+      <c r="DH1" s="25"/>
+      <c r="DI1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="DJ1" s="23"/>
-      <c r="DK1" s="23"/>
-      <c r="DL1" s="23"/>
-      <c r="DM1" s="23"/>
-      <c r="DN1" s="23" t="s">
+      <c r="DJ1" s="25"/>
+      <c r="DK1" s="25"/>
+      <c r="DL1" s="25"/>
+      <c r="DM1" s="25"/>
+      <c r="DN1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="DO1" s="23"/>
-      <c r="DP1" s="23"/>
-      <c r="DQ1" s="23"/>
-      <c r="DR1" s="23"/>
-      <c r="DS1" s="23" t="s">
+      <c r="DO1" s="25"/>
+      <c r="DP1" s="25"/>
+      <c r="DQ1" s="25"/>
+      <c r="DR1" s="25"/>
+      <c r="DS1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="DT1" s="23"/>
-      <c r="DU1" s="23"/>
-      <c r="DV1" s="23"/>
-      <c r="DW1" s="23"/>
-      <c r="DX1" s="23" t="s">
+      <c r="DT1" s="25"/>
+      <c r="DU1" s="25"/>
+      <c r="DV1" s="25"/>
+      <c r="DW1" s="25"/>
+      <c r="DX1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="DY1" s="23"/>
-      <c r="DZ1" s="23"/>
-      <c r="EA1" s="23"/>
-      <c r="EB1" s="23"/>
-      <c r="EC1" s="23" t="s">
+      <c r="DY1" s="25"/>
+      <c r="DZ1" s="25"/>
+      <c r="EA1" s="25"/>
+      <c r="EB1" s="25"/>
+      <c r="EC1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="ED1" s="23"/>
-      <c r="EE1" s="23"/>
-      <c r="EF1" s="23"/>
-      <c r="EG1" s="23"/>
-      <c r="EH1" s="23" t="s">
+      <c r="ED1" s="25"/>
+      <c r="EE1" s="25"/>
+      <c r="EF1" s="25"/>
+      <c r="EG1" s="25"/>
+      <c r="EH1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="EI1" s="23"/>
-      <c r="EJ1" s="23"/>
-      <c r="EK1" s="23"/>
-      <c r="EL1" s="23"/>
-      <c r="EM1" s="23" t="s">
+      <c r="EI1" s="25"/>
+      <c r="EJ1" s="25"/>
+      <c r="EK1" s="25"/>
+      <c r="EL1" s="25"/>
+      <c r="EM1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="EN1" s="23"/>
-      <c r="EO1" s="23"/>
-      <c r="EP1" s="23"/>
-      <c r="EQ1" s="23"/>
-      <c r="ER1" s="21" t="s">
+      <c r="EN1" s="25"/>
+      <c r="EO1" s="25"/>
+      <c r="EP1" s="25"/>
+      <c r="EQ1" s="25"/>
+      <c r="ER1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="ES1" s="21"/>
-      <c r="ET1" s="21" t="s">
+      <c r="ES1" s="27"/>
+      <c r="ET1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="EU1" s="21"/>
-      <c r="EV1" s="21" t="s">
+      <c r="EU1" s="27"/>
+      <c r="EV1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="EW1" s="21"/>
-      <c r="EX1" s="22" t="s">
+      <c r="EW1" s="27"/>
+      <c r="EX1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="EY1" s="22" t="s">
+      <c r="EY1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="EZ1" s="20" t="s">
+      <c r="EZ1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="FA1" s="20" t="s">
+      <c r="FA1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="FB1" s="20" t="s">
+      <c r="FB1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="FC1" s="20" t="s">
+      <c r="FC1" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:159" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="20"/>
+    <row r="2" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1702,14 +1703,14 @@
       <c r="EW2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="EX2" s="22"/>
-      <c r="EY2" s="22"/>
-      <c r="EZ2" s="20"/>
-      <c r="FA2" s="20"/>
-      <c r="FB2" s="20"/>
-      <c r="FC2" s="20"/>
+      <c r="EX2" s="28"/>
+      <c r="EY2" s="28"/>
+      <c r="EZ2" s="21"/>
+      <c r="FA2" s="21"/>
+      <c r="FB2" s="21"/>
+      <c r="FC2" s="21"/>
     </row>
-    <row r="3" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2279,12 +2280,12 @@
       </c>
       <c r="FC3" s="6"/>
     </row>
-    <row r="4" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="7">
         <v>172312002</v>
@@ -2851,7 +2852,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -3995,11 +3996,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="7">
@@ -4564,10 +4565,10 @@
         <v>Excellent</v>
       </c>
       <c r="FC7" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -5707,7 +5708,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -6277,7 +6278,7 @@
       </c>
       <c r="FC10" s="6"/>
     </row>
-    <row r="11" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -6843,7 +6844,7 @@
       </c>
       <c r="FC11" s="6"/>
     </row>
-    <row r="12" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -7415,7 +7416,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -7985,7 +7986,7 @@
       </c>
       <c r="FC13" s="6"/>
     </row>
-    <row r="14" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -8551,7 +8552,7 @@
       </c>
       <c r="FC14" s="6"/>
     </row>
-    <row r="15" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -9121,7 +9122,7 @@
       </c>
       <c r="FC15" s="6"/>
     </row>
-    <row r="16" spans="1:159" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:159" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -9693,11 +9694,39 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="41:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="41:41" x14ac:dyDescent="0.2">
       <c r="AO17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="FB1:FB2"/>
+    <mergeCell ref="FC1:FC2"/>
+    <mergeCell ref="ET1:EU1"/>
+    <mergeCell ref="EV1:EW1"/>
+    <mergeCell ref="EX1:EX2"/>
+    <mergeCell ref="EY1:EY2"/>
+    <mergeCell ref="EZ1:EZ2"/>
+    <mergeCell ref="FA1:FA2"/>
+    <mergeCell ref="EM1:EQ1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="ER1:ES1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="EC1:EG1"/>
+    <mergeCell ref="EH1:EL1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="A1:A2"/>
@@ -9714,34 +9743,6 @@
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="EM1:EQ1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="ER1:ES1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
-    <mergeCell ref="EC1:EG1"/>
-    <mergeCell ref="EH1:EL1"/>
-    <mergeCell ref="FB1:FB2"/>
-    <mergeCell ref="FC1:FC2"/>
-    <mergeCell ref="ET1:EU1"/>
-    <mergeCell ref="EV1:EW1"/>
-    <mergeCell ref="EX1:EX2"/>
-    <mergeCell ref="EY1:EY2"/>
-    <mergeCell ref="EZ1:EZ2"/>
-    <mergeCell ref="FA1:FA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/S1 Keperawatan/RPL/RPL 1/Transkip RPL 1.xlsx
+++ b/S1 Keperawatan/RPL/RPL 1/Transkip RPL 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DA2092-DB79-43D0-AC8B-BFB179EFCE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7169029B-4351-42C6-B3AC-75AA06D1A9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C623B17B-F356-4211-B3E1-9052FF0B64E1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="110">
   <si>
     <t>NO</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Tangal Kelulusan</t>
   </si>
   <si>
-    <t>Gambaran Asuhan Keperawatan Pada Lansia Dengan Ganguan Sistem Neurologi Di Panti Werdha Embung Fatimah Tanjungpinang (Kasus Demensia)</t>
-  </si>
-  <si>
     <t>Pengaruh Penggunaan Media Flashcard Terhadap Perkembangan Bahasa Anak Prasekolah Di Paud Mulya Baran Barat</t>
   </si>
   <si>
@@ -318,9 +315,6 @@
     <t>Pengaruh Story Telling Terhadap Kecemasan Anak Pada Saat Pemasangan Infus Di Ruangan Rawat Inap Pav Lotus Rumah Sakit Budi Ekmuliaan Batam</t>
   </si>
   <si>
-    <t>Faktor-Faktor Yang Berhubungan Dengan Pemberian Asi Eksklusif Di Uptd Puskesmas Sei Jang Kota Tanjungpinang Tahun 2024</t>
-  </si>
-  <si>
     <t>Batam</t>
   </si>
   <si>
@@ -337,6 +331,39 @@
   </si>
   <si>
     <t>Pengaruh Pemberian Terapi Musik Terhadap Kecemasan Pasien Anak Toodler Usia 1-3 Tahun Pada Pemasangan Infus Di Ruang Lotus Rsbk Batam</t>
+  </si>
+  <si>
+    <t>Judul Bahasa Inggris</t>
+  </si>
+  <si>
+    <t>Faktor-Faktor Yang Berhubungan Dengan Resiko Low Back Pain (LBP) Pada Nelayan Penjaring Ikan Di Pesisir Pantai Desa Berakit Bintan</t>
+  </si>
+  <si>
+    <t>Factors Associated with the Risk of Low Back Pain (LBP) Among Net-Fishing Fishermen on the Coastal Area of Berakit Village, Bintan</t>
+  </si>
+  <si>
+    <t>The Effect of Flashcard Media Use on Language Development in Preschool Children at PAUD Mulya Baran Barat</t>
+  </si>
+  <si>
+    <t>Association Between Surgical Waiting Time and Preoperative Anxiety Among Adult Elective Surgery Patients at Rumkital Dr. Midiyato Suratani, Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Effect of Music Therapy on Anxiety in Toddler Patients Aged 1–3 Years During IV Cannulation in the Lotus Ward of RSBK Batam</t>
+  </si>
+  <si>
+    <t>Risk Factors Associated with the Incidence of Chronic Kidney Failure in the Hemodialysis Unit of Budi Kemuliaan Hospital Batam, 2024</t>
+  </si>
+  <si>
+    <t>Description of Nursing Care in the Administration of Tepid Sponge Therapy to Manage Hyperthermia in Children with Dengue Hemorrhagic Fever in the Anggrek Ward of Tanjungpinang City Hospital</t>
+  </si>
+  <si>
+    <t>The Effect of Storytelling on Anxiety in Children During IV Cannulation in the Inpatient Pav Lotus Ward, Budi Kemuliaan Hospital, Batam.</t>
+  </si>
+  <si>
+    <t>Faktor-Faktor Yang Berhubungan Dengan Pemberian Asi Eksklusif Di UPTD Puskesmas Sei Jang Kota Tanjungpinang Tahun 2024</t>
+  </si>
+  <si>
+    <t>Factors Associated with Exclusive Breastfeeding Practices at UPTD Sei Jang Public Health Center, Tanjungpinang City, in 2024</t>
   </si>
 </sst>
 </file>
@@ -407,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -453,6 +480,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -503,11 +539,23 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,19 +566,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,11 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34956858-B69D-40A7-AE63-3928404750C8}">
-  <dimension ref="A1:FC17"/>
+  <dimension ref="A1:FD17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="ET1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <pane xSplit="3" topLeftCell="FA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FD16" sqref="FD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1005,266 +1043,270 @@
     <col min="157" max="157" width="18" style="1" customWidth="1"/>
     <col min="158" max="158" width="18.28515625" style="1" customWidth="1"/>
     <col min="159" max="159" width="27.7109375" style="1" customWidth="1"/>
-    <col min="160" max="16384" width="9.140625" style="1"/>
+    <col min="160" max="160" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="161" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20" t="s">
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20" t="s">
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20" t="s">
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="26" t="s">
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="26"/>
-      <c r="BF1" s="26" t="s">
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="BG1" s="26"/>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="26"/>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="26" t="s">
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="BL1" s="26"/>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="26" t="s">
+      <c r="BL1" s="24"/>
+      <c r="BM1" s="24"/>
+      <c r="BN1" s="24"/>
+      <c r="BO1" s="24"/>
+      <c r="BP1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="BQ1" s="26"/>
-      <c r="BR1" s="26"/>
-      <c r="BS1" s="26"/>
-      <c r="BT1" s="26"/>
-      <c r="BU1" s="26" t="s">
+      <c r="BQ1" s="24"/>
+      <c r="BR1" s="24"/>
+      <c r="BS1" s="24"/>
+      <c r="BT1" s="24"/>
+      <c r="BU1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="BV1" s="26"/>
-      <c r="BW1" s="26"/>
-      <c r="BX1" s="26"/>
-      <c r="BY1" s="26"/>
-      <c r="BZ1" s="26" t="s">
+      <c r="BV1" s="24"/>
+      <c r="BW1" s="24"/>
+      <c r="BX1" s="24"/>
+      <c r="BY1" s="24"/>
+      <c r="BZ1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="CA1" s="26"/>
-      <c r="CB1" s="26"/>
-      <c r="CC1" s="26"/>
-      <c r="CD1" s="26"/>
-      <c r="CE1" s="26" t="s">
+      <c r="CA1" s="24"/>
+      <c r="CB1" s="24"/>
+      <c r="CC1" s="24"/>
+      <c r="CD1" s="24"/>
+      <c r="CE1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="CF1" s="26"/>
-      <c r="CG1" s="26"/>
-      <c r="CH1" s="26"/>
-      <c r="CI1" s="26"/>
-      <c r="CJ1" s="26" t="s">
+      <c r="CF1" s="24"/>
+      <c r="CG1" s="24"/>
+      <c r="CH1" s="24"/>
+      <c r="CI1" s="24"/>
+      <c r="CJ1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="CK1" s="26"/>
-      <c r="CL1" s="26"/>
-      <c r="CM1" s="26"/>
-      <c r="CN1" s="26"/>
-      <c r="CO1" s="26" t="s">
+      <c r="CK1" s="24"/>
+      <c r="CL1" s="24"/>
+      <c r="CM1" s="24"/>
+      <c r="CN1" s="24"/>
+      <c r="CO1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="CP1" s="26"/>
-      <c r="CQ1" s="26"/>
-      <c r="CR1" s="26"/>
-      <c r="CS1" s="26"/>
-      <c r="CT1" s="26" t="s">
+      <c r="CP1" s="24"/>
+      <c r="CQ1" s="24"/>
+      <c r="CR1" s="24"/>
+      <c r="CS1" s="24"/>
+      <c r="CT1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="CU1" s="26"/>
-      <c r="CV1" s="26"/>
-      <c r="CW1" s="26"/>
-      <c r="CX1" s="26"/>
-      <c r="CY1" s="25" t="s">
+      <c r="CU1" s="24"/>
+      <c r="CV1" s="24"/>
+      <c r="CW1" s="24"/>
+      <c r="CX1" s="24"/>
+      <c r="CY1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="CZ1" s="25"/>
-      <c r="DA1" s="25"/>
-      <c r="DB1" s="25"/>
-      <c r="DC1" s="25"/>
-      <c r="DD1" s="25" t="s">
+      <c r="CZ1" s="23"/>
+      <c r="DA1" s="23"/>
+      <c r="DB1" s="23"/>
+      <c r="DC1" s="23"/>
+      <c r="DD1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="DE1" s="25"/>
-      <c r="DF1" s="25"/>
-      <c r="DG1" s="25"/>
-      <c r="DH1" s="25"/>
-      <c r="DI1" s="25" t="s">
+      <c r="DE1" s="23"/>
+      <c r="DF1" s="23"/>
+      <c r="DG1" s="23"/>
+      <c r="DH1" s="23"/>
+      <c r="DI1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="DJ1" s="25"/>
-      <c r="DK1" s="25"/>
-      <c r="DL1" s="25"/>
-      <c r="DM1" s="25"/>
-      <c r="DN1" s="25" t="s">
+      <c r="DJ1" s="23"/>
+      <c r="DK1" s="23"/>
+      <c r="DL1" s="23"/>
+      <c r="DM1" s="23"/>
+      <c r="DN1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="DO1" s="25"/>
-      <c r="DP1" s="25"/>
-      <c r="DQ1" s="25"/>
-      <c r="DR1" s="25"/>
-      <c r="DS1" s="25" t="s">
+      <c r="DO1" s="23"/>
+      <c r="DP1" s="23"/>
+      <c r="DQ1" s="23"/>
+      <c r="DR1" s="23"/>
+      <c r="DS1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="DT1" s="25"/>
-      <c r="DU1" s="25"/>
-      <c r="DV1" s="25"/>
-      <c r="DW1" s="25"/>
-      <c r="DX1" s="25" t="s">
+      <c r="DT1" s="23"/>
+      <c r="DU1" s="23"/>
+      <c r="DV1" s="23"/>
+      <c r="DW1" s="23"/>
+      <c r="DX1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="DY1" s="25"/>
-      <c r="DZ1" s="25"/>
-      <c r="EA1" s="25"/>
-      <c r="EB1" s="25"/>
-      <c r="EC1" s="25" t="s">
+      <c r="DY1" s="23"/>
+      <c r="DZ1" s="23"/>
+      <c r="EA1" s="23"/>
+      <c r="EB1" s="23"/>
+      <c r="EC1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="ED1" s="25"/>
-      <c r="EE1" s="25"/>
-      <c r="EF1" s="25"/>
-      <c r="EG1" s="25"/>
-      <c r="EH1" s="25" t="s">
+      <c r="ED1" s="23"/>
+      <c r="EE1" s="23"/>
+      <c r="EF1" s="23"/>
+      <c r="EG1" s="23"/>
+      <c r="EH1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="EI1" s="25"/>
-      <c r="EJ1" s="25"/>
-      <c r="EK1" s="25"/>
-      <c r="EL1" s="25"/>
-      <c r="EM1" s="25" t="s">
+      <c r="EI1" s="23"/>
+      <c r="EJ1" s="23"/>
+      <c r="EK1" s="23"/>
+      <c r="EL1" s="23"/>
+      <c r="EM1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="EN1" s="25"/>
-      <c r="EO1" s="25"/>
-      <c r="EP1" s="25"/>
-      <c r="EQ1" s="25"/>
-      <c r="ER1" s="27" t="s">
+      <c r="EN1" s="23"/>
+      <c r="EO1" s="23"/>
+      <c r="EP1" s="23"/>
+      <c r="EQ1" s="23"/>
+      <c r="ER1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="ES1" s="27"/>
-      <c r="ET1" s="27" t="s">
+      <c r="ES1" s="21"/>
+      <c r="ET1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="EU1" s="27"/>
-      <c r="EV1" s="27" t="s">
+      <c r="EU1" s="21"/>
+      <c r="EV1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="EW1" s="27"/>
-      <c r="EX1" s="28" t="s">
+      <c r="EW1" s="21"/>
+      <c r="EX1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="EY1" s="28" t="s">
+      <c r="EY1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="EZ1" s="21" t="s">
+      <c r="EZ1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="FA1" s="21" t="s">
+      <c r="FA1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="FB1" s="21" t="s">
+      <c r="FB1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="FC1" s="21" t="s">
+      <c r="FC1" s="20" t="s">
         <v>66</v>
       </c>
+      <c r="FD1" s="29" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:159" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="21"/>
+    <row r="2" spans="1:160" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1703,14 +1745,15 @@
       <c r="EW2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="EX2" s="28"/>
-      <c r="EY2" s="28"/>
-      <c r="EZ2" s="21"/>
-      <c r="FA2" s="21"/>
-      <c r="FB2" s="21"/>
-      <c r="FC2" s="21"/>
+      <c r="EX2" s="22"/>
+      <c r="EY2" s="22"/>
+      <c r="EZ2" s="20"/>
+      <c r="FA2" s="20"/>
+      <c r="FB2" s="20"/>
+      <c r="FC2" s="20"/>
+      <c r="FD2" s="29"/>
     </row>
-    <row r="3" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1721,13 +1764,13 @@
         <v>172312001</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="3">
@@ -2280,12 +2323,12 @@
       </c>
       <c r="FC3" s="6"/>
     </row>
-    <row r="4" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="7">
         <v>172312002</v>
@@ -2297,7 +2340,7 @@
         <v>67</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="3">
@@ -2849,10 +2892,13 @@
         <v>Excellent</v>
       </c>
       <c r="FC4" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="FD4" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2869,7 +2915,7 @@
         <v>69</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="3">
@@ -3421,10 +3467,13 @@
         <v>Excellent</v>
       </c>
       <c r="FC5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="FD5" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -3441,7 +3490,7 @@
         <v>71</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="3">
@@ -3993,14 +4042,17 @@
         <v>Excellent</v>
       </c>
       <c r="FC6" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="FD6" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="7">
@@ -4013,7 +4065,7 @@
         <v>77</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="3">
@@ -4565,10 +4617,13 @@
         <v>Excellent</v>
       </c>
       <c r="FC7" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="FD7" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -4585,7 +4640,7 @@
         <v>79</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3">
@@ -5137,10 +5192,13 @@
         <v>Excellent</v>
       </c>
       <c r="FC8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="FD8" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -5153,7 +5211,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="3">
@@ -5705,10 +5763,13 @@
         <v>Excellent</v>
       </c>
       <c r="FC9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="FD9" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -5725,7 +5786,7 @@
         <v>81</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="3">
@@ -6278,7 +6339,7 @@
       </c>
       <c r="FC10" s="6"/>
     </row>
-    <row r="11" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -6291,7 +6352,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="3">
@@ -6844,7 +6905,7 @@
       </c>
       <c r="FC11" s="6"/>
     </row>
-    <row r="12" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -6861,7 +6922,7 @@
         <v>74</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="3">
@@ -7413,10 +7474,13 @@
         <v>Excellent</v>
       </c>
       <c r="FC12" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="FD12" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -7433,7 +7497,7 @@
         <v>83</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="3">
@@ -7986,7 +8050,7 @@
       </c>
       <c r="FC13" s="6"/>
     </row>
-    <row r="14" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -7999,7 +8063,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="3">
@@ -8552,7 +8616,7 @@
       </c>
       <c r="FC14" s="6"/>
     </row>
-    <row r="15" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -8569,7 +8633,7 @@
         <v>85</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="3">
@@ -9122,7 +9186,7 @@
       </c>
       <c r="FC15" s="6"/>
     </row>
-    <row r="16" spans="1:159" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -9139,7 +9203,7 @@
         <v>76</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="3">
@@ -9691,42 +9755,18 @@
         <v>Excellent</v>
       </c>
       <c r="FC16" s="6" t="s">
-        <v>94</v>
+        <v>108</v>
+      </c>
+      <c r="FD16" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="41:41" x14ac:dyDescent="0.2">
       <c r="AO17" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="FB1:FB2"/>
-    <mergeCell ref="FC1:FC2"/>
-    <mergeCell ref="ET1:EU1"/>
-    <mergeCell ref="EV1:EW1"/>
-    <mergeCell ref="EX1:EX2"/>
-    <mergeCell ref="EY1:EY2"/>
-    <mergeCell ref="EZ1:EZ2"/>
-    <mergeCell ref="FA1:FA2"/>
-    <mergeCell ref="EM1:EQ1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="ER1:ES1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
-    <mergeCell ref="EC1:EG1"/>
-    <mergeCell ref="EH1:EL1"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
+  <mergeCells count="45">
+    <mergeCell ref="FD1:FD2"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="A1:A2"/>
@@ -9743,6 +9783,34 @@
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
+    <mergeCell ref="EM1:EQ1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="ER1:ES1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="EC1:EG1"/>
+    <mergeCell ref="EH1:EL1"/>
+    <mergeCell ref="FB1:FB2"/>
+    <mergeCell ref="FC1:FC2"/>
+    <mergeCell ref="ET1:EU1"/>
+    <mergeCell ref="EV1:EW1"/>
+    <mergeCell ref="EX1:EX2"/>
+    <mergeCell ref="EY1:EY2"/>
+    <mergeCell ref="EZ1:EZ2"/>
+    <mergeCell ref="FA1:FA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/S1 Keperawatan/RPL/RPL 1/Transkip RPL 1.xlsx
+++ b/S1 Keperawatan/RPL/RPL 1/Transkip RPL 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7169029B-4351-42C6-B3AC-75AA06D1A9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3331FF76-54DF-4495-AF9F-5AEBEA8468C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C623B17B-F356-4211-B3E1-9052FF0B64E1}"/>
+    <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" xr2:uid="{C623B17B-F356-4211-B3E1-9052FF0B64E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Transkip" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="124">
   <si>
     <t>NO</t>
   </si>
@@ -364,13 +364,55 @@
   </si>
   <si>
     <t>Factors Associated with Exclusive Breastfeeding Practices at UPTD Sei Jang Public Health Center, Tanjungpinang City, in 2024</t>
+  </si>
+  <si>
+    <t>944 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>945 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>946 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>947 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>948 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>949 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>950 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>951 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>952 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>953 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>954 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>955 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>956 / 11 / VIII / 2025</t>
+  </si>
+  <si>
+    <t>957 / 11 / VIII / 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +442,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -539,23 +587,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,8 +605,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,8 +934,8 @@
   <dimension ref="A1:FD17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="FA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FD16" sqref="FD16"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1048,265 +1096,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:160" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="27" t="s">
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25" t="s">
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25" t="s">
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25" t="s">
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25" t="s">
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25" t="s">
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="24" t="s">
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24" t="s">
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24" t="s">
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="BL1" s="24"/>
-      <c r="BM1" s="24"/>
-      <c r="BN1" s="24"/>
-      <c r="BO1" s="24"/>
-      <c r="BP1" s="24" t="s">
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="27"/>
+      <c r="BO1" s="27"/>
+      <c r="BP1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="24"/>
-      <c r="BS1" s="24"/>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="24" t="s">
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="BV1" s="24"/>
-      <c r="BW1" s="24"/>
-      <c r="BX1" s="24"/>
-      <c r="BY1" s="24"/>
-      <c r="BZ1" s="24" t="s">
+      <c r="BV1" s="27"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="27"/>
+      <c r="BY1" s="27"/>
+      <c r="BZ1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="CA1" s="24"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="24"/>
-      <c r="CE1" s="24" t="s">
+      <c r="CA1" s="27"/>
+      <c r="CB1" s="27"/>
+      <c r="CC1" s="27"/>
+      <c r="CD1" s="27"/>
+      <c r="CE1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-      <c r="CH1" s="24"/>
-      <c r="CI1" s="24"/>
-      <c r="CJ1" s="24" t="s">
+      <c r="CF1" s="27"/>
+      <c r="CG1" s="27"/>
+      <c r="CH1" s="27"/>
+      <c r="CI1" s="27"/>
+      <c r="CJ1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="CK1" s="24"/>
-      <c r="CL1" s="24"/>
-      <c r="CM1" s="24"/>
-      <c r="CN1" s="24"/>
-      <c r="CO1" s="24" t="s">
+      <c r="CK1" s="27"/>
+      <c r="CL1" s="27"/>
+      <c r="CM1" s="27"/>
+      <c r="CN1" s="27"/>
+      <c r="CO1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="CP1" s="24"/>
-      <c r="CQ1" s="24"/>
-      <c r="CR1" s="24"/>
-      <c r="CS1" s="24"/>
-      <c r="CT1" s="24" t="s">
+      <c r="CP1" s="27"/>
+      <c r="CQ1" s="27"/>
+      <c r="CR1" s="27"/>
+      <c r="CS1" s="27"/>
+      <c r="CT1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="CU1" s="24"/>
-      <c r="CV1" s="24"/>
-      <c r="CW1" s="24"/>
-      <c r="CX1" s="24"/>
-      <c r="CY1" s="23" t="s">
+      <c r="CU1" s="27"/>
+      <c r="CV1" s="27"/>
+      <c r="CW1" s="27"/>
+      <c r="CX1" s="27"/>
+      <c r="CY1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="CZ1" s="23"/>
-      <c r="DA1" s="23"/>
-      <c r="DB1" s="23"/>
-      <c r="DC1" s="23"/>
-      <c r="DD1" s="23" t="s">
+      <c r="CZ1" s="26"/>
+      <c r="DA1" s="26"/>
+      <c r="DB1" s="26"/>
+      <c r="DC1" s="26"/>
+      <c r="DD1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="DE1" s="23"/>
-      <c r="DF1" s="23"/>
-      <c r="DG1" s="23"/>
-      <c r="DH1" s="23"/>
-      <c r="DI1" s="23" t="s">
+      <c r="DE1" s="26"/>
+      <c r="DF1" s="26"/>
+      <c r="DG1" s="26"/>
+      <c r="DH1" s="26"/>
+      <c r="DI1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="DJ1" s="23"/>
-      <c r="DK1" s="23"/>
-      <c r="DL1" s="23"/>
-      <c r="DM1" s="23"/>
-      <c r="DN1" s="23" t="s">
+      <c r="DJ1" s="26"/>
+      <c r="DK1" s="26"/>
+      <c r="DL1" s="26"/>
+      <c r="DM1" s="26"/>
+      <c r="DN1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="DO1" s="23"/>
-      <c r="DP1" s="23"/>
-      <c r="DQ1" s="23"/>
-      <c r="DR1" s="23"/>
-      <c r="DS1" s="23" t="s">
+      <c r="DO1" s="26"/>
+      <c r="DP1" s="26"/>
+      <c r="DQ1" s="26"/>
+      <c r="DR1" s="26"/>
+      <c r="DS1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="DT1" s="23"/>
-      <c r="DU1" s="23"/>
-      <c r="DV1" s="23"/>
-      <c r="DW1" s="23"/>
-      <c r="DX1" s="23" t="s">
+      <c r="DT1" s="26"/>
+      <c r="DU1" s="26"/>
+      <c r="DV1" s="26"/>
+      <c r="DW1" s="26"/>
+      <c r="DX1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="DY1" s="23"/>
-      <c r="DZ1" s="23"/>
-      <c r="EA1" s="23"/>
-      <c r="EB1" s="23"/>
-      <c r="EC1" s="23" t="s">
+      <c r="DY1" s="26"/>
+      <c r="DZ1" s="26"/>
+      <c r="EA1" s="26"/>
+      <c r="EB1" s="26"/>
+      <c r="EC1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="ED1" s="23"/>
-      <c r="EE1" s="23"/>
-      <c r="EF1" s="23"/>
-      <c r="EG1" s="23"/>
-      <c r="EH1" s="23" t="s">
+      <c r="ED1" s="26"/>
+      <c r="EE1" s="26"/>
+      <c r="EF1" s="26"/>
+      <c r="EG1" s="26"/>
+      <c r="EH1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="EI1" s="23"/>
-      <c r="EJ1" s="23"/>
-      <c r="EK1" s="23"/>
-      <c r="EL1" s="23"/>
-      <c r="EM1" s="23" t="s">
+      <c r="EI1" s="26"/>
+      <c r="EJ1" s="26"/>
+      <c r="EK1" s="26"/>
+      <c r="EL1" s="26"/>
+      <c r="EM1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="EN1" s="23"/>
-      <c r="EO1" s="23"/>
-      <c r="EP1" s="23"/>
-      <c r="EQ1" s="23"/>
-      <c r="ER1" s="21" t="s">
+      <c r="EN1" s="26"/>
+      <c r="EO1" s="26"/>
+      <c r="EP1" s="26"/>
+      <c r="EQ1" s="26"/>
+      <c r="ER1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="ES1" s="21"/>
-      <c r="ET1" s="21" t="s">
+      <c r="ES1" s="28"/>
+      <c r="ET1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="EU1" s="21"/>
-      <c r="EV1" s="21" t="s">
+      <c r="EU1" s="28"/>
+      <c r="EV1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="EW1" s="21"/>
-      <c r="EX1" s="22" t="s">
+      <c r="EW1" s="28"/>
+      <c r="EX1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="EY1" s="22" t="s">
+      <c r="EY1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="EZ1" s="20" t="s">
+      <c r="EZ1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="FA1" s="20" t="s">
+      <c r="FA1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="FB1" s="20" t="s">
+      <c r="FB1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="FC1" s="20" t="s">
+      <c r="FC1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="FD1" s="29" t="s">
+      <c r="FD1" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:160" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1745,13 +1793,13 @@
       <c r="EW2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="EX2" s="22"/>
-      <c r="EY2" s="22"/>
-      <c r="EZ2" s="20"/>
-      <c r="FA2" s="20"/>
-      <c r="FB2" s="20"/>
-      <c r="FC2" s="20"/>
-      <c r="FD2" s="29"/>
+      <c r="EX2" s="29"/>
+      <c r="EY2" s="29"/>
+      <c r="EZ2" s="22"/>
+      <c r="FA2" s="22"/>
+      <c r="FB2" s="22"/>
+      <c r="FC2" s="22"/>
+      <c r="FD2" s="20"/>
     </row>
     <row r="3" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -1772,7 +1820,9 @@
       <c r="F3" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="H3" s="3">
         <v>78</v>
       </c>
@@ -2342,7 +2392,9 @@
       <c r="F4" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="H4" s="3">
         <v>78</v>
       </c>
@@ -2917,7 +2969,9 @@
       <c r="F5" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H5" s="3">
         <v>78</v>
       </c>
@@ -3492,7 +3546,9 @@
       <c r="F6" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="H6" s="3">
         <v>73</v>
       </c>
@@ -4067,7 +4123,9 @@
       <c r="F7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="H7" s="3">
         <v>73</v>
       </c>
@@ -4642,7 +4700,9 @@
       <c r="F8" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="H8" s="3">
         <v>79</v>
       </c>
@@ -5213,7 +5273,9 @@
       <c r="F9" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="H9" s="3">
         <v>78</v>
       </c>
@@ -5788,7 +5850,9 @@
       <c r="F10" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="H10" s="3">
         <v>78</v>
       </c>
@@ -6354,7 +6418,9 @@
       <c r="F11" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="H11" s="3">
         <v>78</v>
       </c>
@@ -6924,7 +6990,9 @@
       <c r="F12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="H12" s="3">
         <v>78</v>
       </c>
@@ -7499,7 +7567,9 @@
       <c r="F13" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="H13" s="3">
         <v>78</v>
       </c>
@@ -8065,7 +8135,9 @@
       <c r="F14" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="H14" s="3">
         <v>73</v>
       </c>
@@ -8635,7 +8707,9 @@
       <c r="F15" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="H15" s="3">
         <v>79</v>
       </c>
@@ -9205,7 +9279,9 @@
       <c r="F16" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="H16" s="3">
         <v>78</v>
       </c>
@@ -9766,6 +9842,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="FB1:FB2"/>
+    <mergeCell ref="FC1:FC2"/>
+    <mergeCell ref="ET1:EU1"/>
+    <mergeCell ref="EV1:EW1"/>
+    <mergeCell ref="EX1:EX2"/>
+    <mergeCell ref="EY1:EY2"/>
+    <mergeCell ref="EZ1:EZ2"/>
+    <mergeCell ref="FA1:FA2"/>
+    <mergeCell ref="EM1:EQ1"/>
+    <mergeCell ref="DI1:DM1"/>
+    <mergeCell ref="ER1:ES1"/>
+    <mergeCell ref="DN1:DR1"/>
+    <mergeCell ref="DS1:DW1"/>
+    <mergeCell ref="DX1:EB1"/>
+    <mergeCell ref="EC1:EG1"/>
+    <mergeCell ref="EH1:EL1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="CO1:CS1"/>
+    <mergeCell ref="CT1:CX1"/>
+    <mergeCell ref="CY1:DC1"/>
     <mergeCell ref="FD1:FD2"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AV1:AZ1"/>
@@ -9782,36 +9887,8 @@
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="BU1:BY1"/>
-    <mergeCell ref="BZ1:CD1"/>
-    <mergeCell ref="CE1:CI1"/>
-    <mergeCell ref="CJ1:CN1"/>
-    <mergeCell ref="CO1:CS1"/>
-    <mergeCell ref="CT1:CX1"/>
-    <mergeCell ref="CY1:DC1"/>
-    <mergeCell ref="EM1:EQ1"/>
-    <mergeCell ref="DI1:DM1"/>
-    <mergeCell ref="ER1:ES1"/>
-    <mergeCell ref="DN1:DR1"/>
-    <mergeCell ref="DS1:DW1"/>
-    <mergeCell ref="DX1:EB1"/>
-    <mergeCell ref="EC1:EG1"/>
-    <mergeCell ref="EH1:EL1"/>
-    <mergeCell ref="FB1:FB2"/>
-    <mergeCell ref="FC1:FC2"/>
-    <mergeCell ref="ET1:EU1"/>
-    <mergeCell ref="EV1:EW1"/>
-    <mergeCell ref="EX1:EX2"/>
-    <mergeCell ref="EY1:EY2"/>
-    <mergeCell ref="EZ1:EZ2"/>
-    <mergeCell ref="FA1:FA2"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/S1 Keperawatan/RPL/RPL 1/Transkip RPL 1.xlsx
+++ b/S1 Keperawatan/RPL/RPL 1/Transkip RPL 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3331FF76-54DF-4495-AF9F-5AEBEA8468C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E9C887-2EE1-4D9B-B936-DA83A84E2A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-2460" windowWidth="21795" windowHeight="12975" xr2:uid="{C623B17B-F356-4211-B3E1-9052FF0B64E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C623B17B-F356-4211-B3E1-9052FF0B64E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Transkip" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="142">
   <si>
     <t>NO</t>
   </si>
@@ -339,73 +339,127 @@
     <t>Faktor-Faktor Yang Berhubungan Dengan Resiko Low Back Pain (LBP) Pada Nelayan Penjaring Ikan Di Pesisir Pantai Desa Berakit Bintan</t>
   </si>
   <si>
-    <t>Factors Associated with the Risk of Low Back Pain (LBP) Among Net-Fishing Fishermen on the Coastal Area of Berakit Village, Bintan</t>
-  </si>
-  <si>
-    <t>The Effect of Flashcard Media Use on Language Development in Preschool Children at PAUD Mulya Baran Barat</t>
-  </si>
-  <si>
-    <t>Association Between Surgical Waiting Time and Preoperative Anxiety Among Adult Elective Surgery Patients at Rumkital Dr. Midiyato Suratani, Tanjungpinang</t>
-  </si>
-  <si>
-    <t>The Effect of Music Therapy on Anxiety in Toddler Patients Aged 1–3 Years During IV Cannulation in the Lotus Ward of RSBK Batam</t>
-  </si>
-  <si>
-    <t>Risk Factors Associated with the Incidence of Chronic Kidney Failure in the Hemodialysis Unit of Budi Kemuliaan Hospital Batam, 2024</t>
-  </si>
-  <si>
-    <t>Description of Nursing Care in the Administration of Tepid Sponge Therapy to Manage Hyperthermia in Children with Dengue Hemorrhagic Fever in the Anggrek Ward of Tanjungpinang City Hospital</t>
-  </si>
-  <si>
-    <t>The Effect of Storytelling on Anxiety in Children During IV Cannulation in the Inpatient Pav Lotus Ward, Budi Kemuliaan Hospital, Batam.</t>
-  </si>
-  <si>
     <t>Faktor-Faktor Yang Berhubungan Dengan Pemberian Asi Eksklusif Di UPTD Puskesmas Sei Jang Kota Tanjungpinang Tahun 2024</t>
   </si>
   <si>
-    <t>Factors Associated with Exclusive Breastfeeding Practices at UPTD Sei Jang Public Health Center, Tanjungpinang City, in 2024</t>
-  </si>
-  <si>
-    <t>944 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>945 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>946 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>947 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>948 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>949 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>950 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>951 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>952 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>953 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>954 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>955 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>956 / 11 / VIII / 2025</t>
-  </si>
-  <si>
-    <t>957 / 11 / VIII / 2025</t>
+    <t>Obo</t>
+  </si>
+  <si>
+    <t>29 Juni 1982</t>
+  </si>
+  <si>
+    <t>Bandar Meriah</t>
+  </si>
+  <si>
+    <t>09 Juni 1994</t>
+  </si>
+  <si>
+    <t>Tanjung Balai Karimun</t>
+  </si>
+  <si>
+    <t>08 Juni 1999</t>
+  </si>
+  <si>
+    <t>Hubungan Pengetahuan Perawat Dengan Penerapan Early Warning Score (EWS)Pengetahuan Perawat Dengan Penerapan Early Warning Score (EWS) Di Ruang Rawat Inap Rumah Sakit Budi Kemuliaan Batam</t>
+  </si>
+  <si>
+    <t>Hubungan Dukungan Keluarga Dengan Kepatuhan Minum Obat Pada Pasien HIV/AIDS Di Rumah Sakit Budi Kemulian Batam</t>
+  </si>
+  <si>
+    <t>Hubungan Pemberian Asi Dengan Kejadian Ikterik Bayi Hiperbilirubbin Di Ruang Melati Rumah Sakit Budi Kemuliaan Batam</t>
+  </si>
+  <si>
+    <t>Pengaruh Pijat Bayi Menggunakan Minyak Vco  Terhadap Peningkatan Berat Badan Bayi BBLR Di Rumah Sakit Budi Kemuliaan Batam</t>
+  </si>
+  <si>
+    <t>Studi Perbandingan Terapi Audio Visual Guided Imagery Dan Relaksasi Finger Hold Terhadap Nyeri Pada Pasien Cidera Kepala Ringan Di IGD Rumah Sakit Budi Kemuliaan Batam</t>
+  </si>
+  <si>
+    <t>Factors Associated with the Risk of Low Back Pain (LBP) in Fish Netting Fishermen on the Coastal Areas of Berakit Bintan Village</t>
+  </si>
+  <si>
+    <t>The Effect of Using Flashcard Media on Language Development in Preschool Children at Paud Mulya Baran Barat</t>
+  </si>
+  <si>
+    <t>The Relationship Between Operating Waiting Time and Anxiety in Adult Patients Undergoing Elective Preoperative in the Central Surgical Installation of Rumkital Dr. Midiyato Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Effect of Music Therapy on Anxiety in Toddler Patients Aged 1-3 Years During Intravenous Infusion Insertion in the Lotus Room Rstk Batam</t>
+  </si>
+  <si>
+    <t>Risk Factors for the Incidence of Chronic Kidney Failure in the Hemodialysis Room of Rs Budi Kemuliaan Batam in 2024</t>
+  </si>
+  <si>
+    <t>Overview of Nursing Care for Giving Tepid Sponge Therapy to Overcome Hyperthermia in DHF Children in the Anggrek Room of Rsud Kota Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Relationship Between Nurses' Knowledge and the Implementation of Early Warning Score (EWS)/Nurses' Knowledge and the Implementation of Early Warning Score (EWS) in the Inpatient Room of Budi Kemuliaan Hospital Batam</t>
+  </si>
+  <si>
+    <t>The Relationship Between Family Support and Medication Adherence in HIV/AIDS Patients at Budi Kemuliaan Hospital Batam</t>
+  </si>
+  <si>
+    <t>The Effect of Story Telling on Children's Anxiety During Intravenous Infusion Insertion in the Pav Lotus Inpatient Room of Budi Ekmuliaan Hospital Batam</t>
+  </si>
+  <si>
+    <t>The Relationship Between Breastfeeding and the Incidence of Hyperbilirubinemia Jaundice in the Melati Room of Budi Kemuliaan Hospital Batam</t>
+  </si>
+  <si>
+    <t>The Effect of Baby Massage Using VCO Oil on Increasing Body Weight of Low Birth Weight (LBW) Infants at Budi Kemuliaan Hospital Batam</t>
+  </si>
+  <si>
+    <t>Comparative Study of Audio Visual Guided Imagery and Finger Hold Relaxation Therapy on Pain Reduction in Patients with Minor Injuries in the Emergency Room of Budi Kemuliaan Hospital Batam</t>
+  </si>
+  <si>
+    <t>Factors Associated with Exclusive Breastfeeding at Uptd Puskesmas Sei Jang Kota Tanjungpinang in 2024</t>
+  </si>
+  <si>
+    <t>944 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>945 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>946 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>947 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>949 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>952 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>953 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>957 / 11 / V / 2025</t>
+  </si>
+  <si>
+    <t>948 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>950 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>951 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>954 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>955 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>956 / 11 / X / 2025</t>
+  </si>
+  <si>
+    <t>Hubungan Pola Makan Dan Aktivitas Fisik Dengan Kadar Gula Darah Sewaktu Pada Pasien Diabetes Melitus Tipe II Di Poli Penyakit Dalam RSUD Kota Tanjungpinang</t>
+  </si>
+  <si>
+    <t>The Relationship Between Dietary Patterns and Physical Activity with Random Blood Glucose Levels in Patients with Type II Diabetes Mellitus at the Internal Medicine Clinic of RSUD Tanjungpinang City</t>
   </si>
 </sst>
 </file>
@@ -482,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -518,33 +572,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -587,22 +619,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,9 +956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34956858-B69D-40A7-AE63-3928404750C8}">
   <dimension ref="A1:FD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="FD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FD3" sqref="FD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1090,31 +1113,31 @@
     <col min="156" max="156" width="20.7109375" style="2" customWidth="1"/>
     <col min="157" max="157" width="18" style="1" customWidth="1"/>
     <col min="158" max="158" width="18.28515625" style="1" customWidth="1"/>
-    <col min="159" max="159" width="27.7109375" style="1" customWidth="1"/>
-    <col min="160" max="160" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="204.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="224.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="161" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:160" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="21" t="s">
@@ -1180,167 +1203,167 @@
       <c r="AX1" s="21"/>
       <c r="AY1" s="21"/>
       <c r="AZ1" s="21"/>
-      <c r="BA1" s="27" t="s">
+      <c r="BA1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27" t="s">
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="BG1" s="27"/>
-      <c r="BH1" s="27"/>
-      <c r="BI1" s="27"/>
-      <c r="BJ1" s="27"/>
-      <c r="BK1" s="27" t="s">
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="BL1" s="27"/>
-      <c r="BM1" s="27"/>
-      <c r="BN1" s="27"/>
-      <c r="BO1" s="27"/>
-      <c r="BP1" s="27" t="s">
+      <c r="BL1" s="24"/>
+      <c r="BM1" s="24"/>
+      <c r="BN1" s="24"/>
+      <c r="BO1" s="24"/>
+      <c r="BP1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27" t="s">
+      <c r="BQ1" s="24"/>
+      <c r="BR1" s="24"/>
+      <c r="BS1" s="24"/>
+      <c r="BT1" s="24"/>
+      <c r="BU1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="27"/>
-      <c r="BY1" s="27"/>
-      <c r="BZ1" s="27" t="s">
+      <c r="BV1" s="24"/>
+      <c r="BW1" s="24"/>
+      <c r="BX1" s="24"/>
+      <c r="BY1" s="24"/>
+      <c r="BZ1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="CA1" s="27"/>
-      <c r="CB1" s="27"/>
-      <c r="CC1" s="27"/>
-      <c r="CD1" s="27"/>
-      <c r="CE1" s="27" t="s">
+      <c r="CA1" s="24"/>
+      <c r="CB1" s="24"/>
+      <c r="CC1" s="24"/>
+      <c r="CD1" s="24"/>
+      <c r="CE1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="CF1" s="27"/>
-      <c r="CG1" s="27"/>
-      <c r="CH1" s="27"/>
-      <c r="CI1" s="27"/>
-      <c r="CJ1" s="27" t="s">
+      <c r="CF1" s="24"/>
+      <c r="CG1" s="24"/>
+      <c r="CH1" s="24"/>
+      <c r="CI1" s="24"/>
+      <c r="CJ1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="CK1" s="27"/>
-      <c r="CL1" s="27"/>
-      <c r="CM1" s="27"/>
-      <c r="CN1" s="27"/>
-      <c r="CO1" s="27" t="s">
+      <c r="CK1" s="24"/>
+      <c r="CL1" s="24"/>
+      <c r="CM1" s="24"/>
+      <c r="CN1" s="24"/>
+      <c r="CO1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="CP1" s="27"/>
-      <c r="CQ1" s="27"/>
-      <c r="CR1" s="27"/>
-      <c r="CS1" s="27"/>
-      <c r="CT1" s="27" t="s">
+      <c r="CP1" s="24"/>
+      <c r="CQ1" s="24"/>
+      <c r="CR1" s="24"/>
+      <c r="CS1" s="24"/>
+      <c r="CT1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="CU1" s="27"/>
-      <c r="CV1" s="27"/>
-      <c r="CW1" s="27"/>
-      <c r="CX1" s="27"/>
-      <c r="CY1" s="26" t="s">
+      <c r="CU1" s="24"/>
+      <c r="CV1" s="24"/>
+      <c r="CW1" s="24"/>
+      <c r="CX1" s="24"/>
+      <c r="CY1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="CZ1" s="26"/>
-      <c r="DA1" s="26"/>
-      <c r="DB1" s="26"/>
-      <c r="DC1" s="26"/>
-      <c r="DD1" s="26" t="s">
+      <c r="CZ1" s="23"/>
+      <c r="DA1" s="23"/>
+      <c r="DB1" s="23"/>
+      <c r="DC1" s="23"/>
+      <c r="DD1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="DE1" s="26"/>
-      <c r="DF1" s="26"/>
-      <c r="DG1" s="26"/>
-      <c r="DH1" s="26"/>
-      <c r="DI1" s="26" t="s">
+      <c r="DE1" s="23"/>
+      <c r="DF1" s="23"/>
+      <c r="DG1" s="23"/>
+      <c r="DH1" s="23"/>
+      <c r="DI1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="DJ1" s="26"/>
-      <c r="DK1" s="26"/>
-      <c r="DL1" s="26"/>
-      <c r="DM1" s="26"/>
-      <c r="DN1" s="26" t="s">
+      <c r="DJ1" s="23"/>
+      <c r="DK1" s="23"/>
+      <c r="DL1" s="23"/>
+      <c r="DM1" s="23"/>
+      <c r="DN1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="DO1" s="26"/>
-      <c r="DP1" s="26"/>
-      <c r="DQ1" s="26"/>
-      <c r="DR1" s="26"/>
-      <c r="DS1" s="26" t="s">
+      <c r="DO1" s="23"/>
+      <c r="DP1" s="23"/>
+      <c r="DQ1" s="23"/>
+      <c r="DR1" s="23"/>
+      <c r="DS1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="DT1" s="26"/>
-      <c r="DU1" s="26"/>
-      <c r="DV1" s="26"/>
-      <c r="DW1" s="26"/>
-      <c r="DX1" s="26" t="s">
+      <c r="DT1" s="23"/>
+      <c r="DU1" s="23"/>
+      <c r="DV1" s="23"/>
+      <c r="DW1" s="23"/>
+      <c r="DX1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="DY1" s="26"/>
-      <c r="DZ1" s="26"/>
-      <c r="EA1" s="26"/>
-      <c r="EB1" s="26"/>
-      <c r="EC1" s="26" t="s">
+      <c r="DY1" s="23"/>
+      <c r="DZ1" s="23"/>
+      <c r="EA1" s="23"/>
+      <c r="EB1" s="23"/>
+      <c r="EC1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="ED1" s="26"/>
-      <c r="EE1" s="26"/>
-      <c r="EF1" s="26"/>
-      <c r="EG1" s="26"/>
-      <c r="EH1" s="26" t="s">
+      <c r="ED1" s="23"/>
+      <c r="EE1" s="23"/>
+      <c r="EF1" s="23"/>
+      <c r="EG1" s="23"/>
+      <c r="EH1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="EI1" s="26"/>
-      <c r="EJ1" s="26"/>
-      <c r="EK1" s="26"/>
-      <c r="EL1" s="26"/>
-      <c r="EM1" s="26" t="s">
+      <c r="EI1" s="23"/>
+      <c r="EJ1" s="23"/>
+      <c r="EK1" s="23"/>
+      <c r="EL1" s="23"/>
+      <c r="EM1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="EN1" s="26"/>
-      <c r="EO1" s="26"/>
-      <c r="EP1" s="26"/>
-      <c r="EQ1" s="26"/>
-      <c r="ER1" s="28" t="s">
+      <c r="EN1" s="23"/>
+      <c r="EO1" s="23"/>
+      <c r="EP1" s="23"/>
+      <c r="EQ1" s="23"/>
+      <c r="ER1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="ES1" s="28"/>
-      <c r="ET1" s="28" t="s">
+      <c r="ES1" s="25"/>
+      <c r="ET1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="EU1" s="28"/>
-      <c r="EV1" s="28" t="s">
+      <c r="EU1" s="25"/>
+      <c r="EV1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="EW1" s="28"/>
-      <c r="EX1" s="29" t="s">
+      <c r="EW1" s="25"/>
+      <c r="EX1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="EY1" s="29" t="s">
+      <c r="EY1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="EZ1" s="22" t="s">
+      <c r="EZ1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="FA1" s="22" t="s">
+      <c r="FA1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="FB1" s="22" t="s">
+      <c r="FB1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="FC1" s="22" t="s">
+      <c r="FC1" s="20" t="s">
         <v>66</v>
       </c>
       <c r="FD1" s="20" t="s">
@@ -1348,13 +1371,13 @@
       </c>
     </row>
     <row r="2" spans="1:160" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1793,12 +1816,12 @@
       <c r="EW2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="EX2" s="29"/>
-      <c r="EY2" s="29"/>
-      <c r="EZ2" s="22"/>
-      <c r="FA2" s="22"/>
-      <c r="FB2" s="22"/>
-      <c r="FC2" s="22"/>
+      <c r="EX2" s="26"/>
+      <c r="EY2" s="26"/>
+      <c r="EZ2" s="20"/>
+      <c r="FA2" s="20"/>
+      <c r="FB2" s="20"/>
+      <c r="FC2" s="20"/>
       <c r="FD2" s="20"/>
     </row>
     <row r="3" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -1821,7 +1844,7 @@
         <v>95</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="H3" s="3">
         <v>78</v>
@@ -2371,7 +2394,12 @@
         <f>IF(EZ3&gt;=3.51,"Excellent",(IF(EZ3&gt;=2.75,"Highly Satisfactory",(IF(EZ3&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Excellent</v>
       </c>
-      <c r="FC3" s="6"/>
+      <c r="FC3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="FD3" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="4" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -2393,7 +2421,7 @@
         <v>95</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="H4" s="3">
         <v>78</v>
@@ -2946,8 +2974,8 @@
       <c r="FC4" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="FD4" s="1" t="s">
-        <v>101</v>
+      <c r="FD4" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -2970,7 +2998,7 @@
         <v>95</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="H5" s="3">
         <v>78</v>
@@ -3523,8 +3551,8 @@
       <c r="FC5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="FD5" s="1" t="s">
-        <v>102</v>
+      <c r="FD5" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -3547,7 +3575,7 @@
         <v>95</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="H6" s="3">
         <v>73</v>
@@ -4100,8 +4128,8 @@
       <c r="FC6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="FD6" s="1" t="s">
-        <v>103</v>
+      <c r="FD6" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -4124,7 +4152,7 @@
         <v>96</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="H7" s="3">
         <v>73</v>
@@ -4677,8 +4705,8 @@
       <c r="FC7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="FD7" s="1" t="s">
-        <v>104</v>
+      <c r="FD7" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -4701,7 +4729,7 @@
         <v>95</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H8" s="3">
         <v>79</v>
@@ -5254,8 +5282,8 @@
       <c r="FC8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="FD8" s="1" t="s">
-        <v>105</v>
+      <c r="FD8" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -5268,13 +5296,17 @@
       <c r="C9" s="7">
         <v>172312010</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="F9" s="15" t="s">
         <v>96</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="H9" s="3">
         <v>78</v>
@@ -5827,8 +5859,8 @@
       <c r="FC9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="FD9" s="1" t="s">
-        <v>106</v>
+      <c r="FD9" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -5851,7 +5883,7 @@
         <v>96</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="H10" s="3">
         <v>78</v>
@@ -6401,7 +6433,12 @@
         <f t="shared" si="121"/>
         <v>Excellent</v>
       </c>
-      <c r="FC10" s="6"/>
+      <c r="FC10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="FD10" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -6413,13 +6450,17 @@
       <c r="C11" s="7">
         <v>172312012</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="F11" s="15" t="s">
         <v>95</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="H11" s="3">
         <v>78</v>
@@ -6969,7 +7010,12 @@
         <f t="shared" si="121"/>
         <v>Excellent</v>
       </c>
-      <c r="FC11" s="6"/>
+      <c r="FC11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="FD11" s="6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -6991,7 +7037,7 @@
         <v>95</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="H12" s="3">
         <v>78</v>
@@ -7544,8 +7590,8 @@
       <c r="FC12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="FD12" s="1" t="s">
-        <v>107</v>
+      <c r="FD12" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -7568,7 +7614,7 @@
         <v>96</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="H13" s="3">
         <v>78</v>
@@ -8118,7 +8164,12 @@
         <f t="shared" si="121"/>
         <v>Excellent</v>
       </c>
-      <c r="FC13" s="6"/>
+      <c r="FC13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="FD13" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="14" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -8130,13 +8181,17 @@
       <c r="C14" s="7">
         <v>172312016</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="F14" s="15" t="s">
         <v>96</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="H14" s="3">
         <v>73</v>
@@ -8686,7 +8741,12 @@
         <f t="shared" si="121"/>
         <v>Excellent</v>
       </c>
-      <c r="FC14" s="6"/>
+      <c r="FC14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="FD14" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="15" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -8708,7 +8768,7 @@
         <v>96</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="H15" s="3">
         <v>79</v>
@@ -9258,7 +9318,12 @@
         <f t="shared" si="121"/>
         <v>Excellent</v>
       </c>
-      <c r="FC15" s="6"/>
+      <c r="FC15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="FD15" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="16" spans="1:160" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -9280,7 +9345,7 @@
         <v>95</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="H16" s="3">
         <v>78</v>
@@ -9831,10 +9896,10 @@
         <v>Excellent</v>
       </c>
       <c r="FC16" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="FD16" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="FD16" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="41:41" x14ac:dyDescent="0.2">

--- a/S1 Keperawatan/RPL/RPL 1/Transkip RPL 1.xlsx
+++ b/S1 Keperawatan/RPL/RPL 1/Transkip RPL 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\S1 Keperawatan\RPL\RPL 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E9C887-2EE1-4D9B-B936-DA83A84E2A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0B3310-94B9-4CFE-9CFE-72842B6A2D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C623B17B-F356-4211-B3E1-9052FF0B64E1}"/>
   </bookViews>
@@ -114,18 +114,12 @@
     <t>Eva Susanti</t>
   </si>
   <si>
-    <t>Aryuni Safitri Oktaviana S</t>
-  </si>
-  <si>
     <t>Dana Kristina</t>
   </si>
   <si>
     <t>Evva Fiditiya Nanda Putri</t>
   </si>
   <si>
-    <t>Ririn Sinta Nuriah Priantna</t>
-  </si>
-  <si>
     <t>Rofina Sekunda Roja</t>
   </si>
   <si>
@@ -246,9 +240,6 @@
     <t>31 Desember 2000</t>
   </si>
   <si>
-    <t>Tg. Balai</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 24 Juli 1988</t>
   </si>
   <si>
@@ -345,15 +336,9 @@
     <t>Obo</t>
   </si>
   <si>
-    <t>29 Juni 1982</t>
-  </si>
-  <si>
     <t>Bandar Meriah</t>
   </si>
   <si>
-    <t>09 Juni 1994</t>
-  </si>
-  <si>
     <t>Tanjung Balai Karimun</t>
   </si>
   <si>
@@ -460,6 +445,21 @@
   </si>
   <si>
     <t>The Relationship Between Dietary Patterns and Physical Activity with Random Blood Glucose Levels in Patients with Type II Diabetes Mellitus at the Internal Medicine Clinic of RSUD Tanjungpinang City</t>
+  </si>
+  <si>
+    <t>Tanjungbalai</t>
+  </si>
+  <si>
+    <t>06 September 1984</t>
+  </si>
+  <si>
+    <t>Ririn Sinta Nuriah Priatna</t>
+  </si>
+  <si>
+    <t>Aryuni Safitri Oktaviana. S</t>
+  </si>
+  <si>
+    <t>29 Juli 1982</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +532,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -640,6 +646,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,7 +985,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="3" topLeftCell="FD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FD3" sqref="FD3"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -967,7 +994,8 @@
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="20" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="16" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
@@ -1135,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>5</v>
@@ -1204,170 +1232,170 @@
       <c r="AY1" s="21"/>
       <c r="AZ1" s="21"/>
       <c r="BA1" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="BB1" s="24"/>
       <c r="BC1" s="24"/>
       <c r="BD1" s="24"/>
       <c r="BE1" s="24"/>
       <c r="BF1" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BG1" s="24"/>
       <c r="BH1" s="24"/>
       <c r="BI1" s="24"/>
       <c r="BJ1" s="24"/>
       <c r="BK1" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BL1" s="24"/>
       <c r="BM1" s="24"/>
       <c r="BN1" s="24"/>
       <c r="BO1" s="24"/>
       <c r="BP1" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BQ1" s="24"/>
       <c r="BR1" s="24"/>
       <c r="BS1" s="24"/>
       <c r="BT1" s="24"/>
       <c r="BU1" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BV1" s="24"/>
       <c r="BW1" s="24"/>
       <c r="BX1" s="24"/>
       <c r="BY1" s="24"/>
       <c r="BZ1" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="CA1" s="24"/>
       <c r="CB1" s="24"/>
       <c r="CC1" s="24"/>
       <c r="CD1" s="24"/>
       <c r="CE1" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CF1" s="24"/>
       <c r="CG1" s="24"/>
       <c r="CH1" s="24"/>
       <c r="CI1" s="24"/>
       <c r="CJ1" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="CK1" s="24"/>
       <c r="CL1" s="24"/>
       <c r="CM1" s="24"/>
       <c r="CN1" s="24"/>
       <c r="CO1" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CP1" s="24"/>
       <c r="CQ1" s="24"/>
       <c r="CR1" s="24"/>
       <c r="CS1" s="24"/>
       <c r="CT1" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CU1" s="24"/>
       <c r="CV1" s="24"/>
       <c r="CW1" s="24"/>
       <c r="CX1" s="24"/>
       <c r="CY1" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CZ1" s="23"/>
       <c r="DA1" s="23"/>
       <c r="DB1" s="23"/>
       <c r="DC1" s="23"/>
       <c r="DD1" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="DE1" s="23"/>
       <c r="DF1" s="23"/>
       <c r="DG1" s="23"/>
       <c r="DH1" s="23"/>
       <c r="DI1" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="DJ1" s="23"/>
       <c r="DK1" s="23"/>
       <c r="DL1" s="23"/>
       <c r="DM1" s="23"/>
       <c r="DN1" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="DO1" s="23"/>
       <c r="DP1" s="23"/>
       <c r="DQ1" s="23"/>
       <c r="DR1" s="23"/>
       <c r="DS1" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="DT1" s="23"/>
       <c r="DU1" s="23"/>
       <c r="DV1" s="23"/>
       <c r="DW1" s="23"/>
       <c r="DX1" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="DY1" s="23"/>
       <c r="DZ1" s="23"/>
       <c r="EA1" s="23"/>
       <c r="EB1" s="23"/>
       <c r="EC1" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="ED1" s="23"/>
       <c r="EE1" s="23"/>
       <c r="EF1" s="23"/>
       <c r="EG1" s="23"/>
       <c r="EH1" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EI1" s="23"/>
       <c r="EJ1" s="23"/>
       <c r="EK1" s="23"/>
       <c r="EL1" s="23"/>
       <c r="EM1" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="EN1" s="23"/>
       <c r="EO1" s="23"/>
       <c r="EP1" s="23"/>
       <c r="EQ1" s="23"/>
       <c r="ER1" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="ES1" s="25"/>
       <c r="ET1" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="EU1" s="25"/>
       <c r="EV1" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="EW1" s="25"/>
       <c r="EX1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="EY1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="EZ1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="EY1" s="26" t="s">
+      <c r="FA1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="EZ1" s="20" t="s">
+      <c r="FB1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="FA1" s="20" t="s">
+      <c r="FC1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="FB1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="FC1" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="FD1" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:160" x14ac:dyDescent="0.2">
@@ -1799,22 +1827,22 @@
         <v>10</v>
       </c>
       <c r="ER2" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="ES2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="ET2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="ET2" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="EU2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="EV2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="EV2" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="EW2" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="EX2" s="26"/>
       <c r="EY2" s="26"/>
@@ -1829,22 +1857,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7">
         <v>172312001</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H3" s="3">
         <v>78</v>
@@ -2395,10 +2423,10 @@
         <v>Excellent</v>
       </c>
       <c r="FC3" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="FD3" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -2406,22 +2434,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" s="7">
         <v>172312002</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H4" s="3">
         <v>78</v>
@@ -2972,10 +3000,10 @@
         <v>Excellent</v>
       </c>
       <c r="FC4" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="FD4" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -2989,16 +3017,16 @@
         <v>172312003</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H5" s="3">
         <v>78</v>
@@ -3549,10 +3577,10 @@
         <v>Excellent</v>
       </c>
       <c r="FC5" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="FD5" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -3566,16 +3594,16 @@
         <v>172312007</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H6" s="3">
         <v>73</v>
@@ -4126,10 +4154,10 @@
         <v>Excellent</v>
       </c>
       <c r="FC6" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="FD6" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -4137,22 +4165,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="C7" s="7">
         <v>172312008</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H7" s="3">
         <v>73</v>
@@ -4703,10 +4731,10 @@
         <v>Excellent</v>
       </c>
       <c r="FC7" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="FD7" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -4720,16 +4748,16 @@
         <v>172312009</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H8" s="3">
         <v>79</v>
@@ -5280,10 +5308,10 @@
         <v>Excellent</v>
       </c>
       <c r="FC8" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="FD8" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -5291,22 +5319,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7">
         <v>172312010</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H9" s="3">
         <v>78</v>
@@ -5857,10 +5885,10 @@
         <v>Excellent</v>
       </c>
       <c r="FC9" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="FD9" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -5868,22 +5896,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7">
         <v>172312011</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H10" s="3">
         <v>78</v>
@@ -6434,10 +6462,10 @@
         <v>Excellent</v>
       </c>
       <c r="FC10" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="FD10" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -6451,16 +6479,16 @@
         <v>172312012</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H11" s="3">
         <v>78</v>
@@ -7011,10 +7039,10 @@
         <v>Excellent</v>
       </c>
       <c r="FC11" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="FD11" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -7028,16 +7056,16 @@
         <v>172312014</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H12" s="3">
         <v>78</v>
@@ -7588,10 +7616,10 @@
         <v>Excellent</v>
       </c>
       <c r="FC12" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="FD12" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -7599,22 +7627,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="C13" s="7">
         <v>172312015</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H13" s="3">
         <v>78</v>
@@ -8165,587 +8193,587 @@
         <v>Excellent</v>
       </c>
       <c r="FC13" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="FD13" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:160" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:160" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="27">
         <v>172312016</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="D14" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="30">
         <v>73</v>
       </c>
-      <c r="I14" s="12" t="str">
+      <c r="I14" s="31" t="str">
         <f t="shared" si="28"/>
         <v>B</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="30">
+        <v>3</v>
+      </c>
+      <c r="L14" s="30">
         <f t="shared" si="29"/>
         <v>9</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="30">
         <v>75</v>
       </c>
-      <c r="N14" s="12" t="str">
+      <c r="N14" s="31" t="str">
         <f t="shared" si="30"/>
         <v>B+</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="32">
         <f t="shared" si="31"/>
         <v>3.5</v>
       </c>
-      <c r="P14" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="30">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="30">
         <f t="shared" si="32"/>
         <v>10.5</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="30">
         <v>80</v>
       </c>
-      <c r="S14" s="12" t="str">
+      <c r="S14" s="31" t="str">
         <f t="shared" si="33"/>
         <v>A</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="32">
         <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>2</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="U14" s="30">
+        <v>2</v>
+      </c>
+      <c r="V14" s="30">
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="30">
         <v>70</v>
       </c>
-      <c r="X14" s="12" t="str">
+      <c r="X14" s="31" t="str">
         <f t="shared" si="36"/>
         <v>B</v>
       </c>
-      <c r="Y14" s="13">
+      <c r="Y14" s="32">
         <f t="shared" si="37"/>
         <v>3</v>
       </c>
-      <c r="Z14" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="Z14" s="30">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="30">
         <f t="shared" si="38"/>
         <v>6</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="30">
         <v>73</v>
       </c>
-      <c r="AC14" s="12" t="str">
+      <c r="AC14" s="31" t="str">
         <f t="shared" si="39"/>
         <v>B</v>
       </c>
-      <c r="AD14" s="13">
+      <c r="AD14" s="32">
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="AE14" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="3">
+      <c r="AE14" s="30">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="30">
         <f t="shared" si="41"/>
         <v>6</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AG14" s="30">
         <v>75</v>
       </c>
-      <c r="AH14" s="12" t="str">
+      <c r="AH14" s="31" t="str">
         <f t="shared" si="42"/>
         <v>B+</v>
       </c>
-      <c r="AI14" s="13">
+      <c r="AI14" s="32">
         <f t="shared" si="43"/>
         <v>3.5</v>
       </c>
-      <c r="AJ14" s="3">
-        <v>2</v>
-      </c>
-      <c r="AK14" s="3">
+      <c r="AJ14" s="30">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="30">
         <f t="shared" si="44"/>
         <v>7</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AL14" s="30">
         <v>79</v>
       </c>
-      <c r="AM14" s="12" t="str">
+      <c r="AM14" s="31" t="str">
         <f t="shared" si="45"/>
         <v>B+</v>
       </c>
-      <c r="AN14" s="13">
+      <c r="AN14" s="32">
         <f t="shared" si="46"/>
         <v>3.5</v>
       </c>
-      <c r="AO14" s="3">
-        <v>2</v>
-      </c>
-      <c r="AP14" s="3">
+      <c r="AO14" s="30">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="30">
         <f t="shared" si="47"/>
         <v>7</v>
       </c>
-      <c r="AQ14" s="3">
+      <c r="AQ14" s="30">
         <v>79</v>
       </c>
-      <c r="AR14" s="12" t="str">
+      <c r="AR14" s="31" t="str">
         <f t="shared" si="48"/>
         <v>B+</v>
       </c>
-      <c r="AS14" s="13">
+      <c r="AS14" s="32">
         <f t="shared" si="49"/>
         <v>3.5</v>
       </c>
-      <c r="AT14" s="3">
-        <v>3</v>
-      </c>
-      <c r="AU14" s="3">
+      <c r="AT14" s="30">
+        <v>3</v>
+      </c>
+      <c r="AU14" s="30">
         <f t="shared" si="50"/>
         <v>10.5</v>
       </c>
-      <c r="AV14" s="3">
+      <c r="AV14" s="30">
         <v>84</v>
       </c>
-      <c r="AW14" s="12" t="str">
+      <c r="AW14" s="31" t="str">
         <f t="shared" si="51"/>
         <v>A</v>
       </c>
-      <c r="AX14" s="13">
+      <c r="AX14" s="32">
         <f t="shared" si="52"/>
         <v>4</v>
       </c>
-      <c r="AY14" s="3">
-        <v>3</v>
-      </c>
-      <c r="AZ14" s="3">
+      <c r="AY14" s="30">
+        <v>3</v>
+      </c>
+      <c r="AZ14" s="30">
         <f t="shared" si="53"/>
         <v>12</v>
       </c>
-      <c r="BA14" s="7">
+      <c r="BA14" s="27">
         <v>81</v>
       </c>
-      <c r="BB14" s="12" t="str">
+      <c r="BB14" s="31" t="str">
         <f t="shared" si="54"/>
         <v>A</v>
       </c>
-      <c r="BC14" s="13">
+      <c r="BC14" s="32">
         <f t="shared" si="55"/>
         <v>4</v>
       </c>
-      <c r="BD14" s="3">
-        <v>2</v>
-      </c>
-      <c r="BE14" s="3">
+      <c r="BD14" s="30">
+        <v>2</v>
+      </c>
+      <c r="BE14" s="30">
         <f t="shared" si="56"/>
         <v>8</v>
       </c>
-      <c r="BF14" s="3">
+      <c r="BF14" s="30">
         <v>81</v>
       </c>
-      <c r="BG14" s="12" t="str">
+      <c r="BG14" s="31" t="str">
         <f t="shared" si="57"/>
         <v>A</v>
       </c>
-      <c r="BH14" s="13">
+      <c r="BH14" s="32">
         <f t="shared" si="58"/>
         <v>4</v>
       </c>
-      <c r="BI14" s="3">
-        <v>2</v>
-      </c>
-      <c r="BJ14" s="3">
+      <c r="BI14" s="30">
+        <v>2</v>
+      </c>
+      <c r="BJ14" s="30">
         <f t="shared" si="59"/>
         <v>8</v>
       </c>
-      <c r="BK14" s="6">
+      <c r="BK14" s="28">
         <v>74</v>
       </c>
-      <c r="BL14" s="12" t="str">
+      <c r="BL14" s="31" t="str">
         <f t="shared" si="60"/>
         <v>B</v>
       </c>
-      <c r="BM14" s="13">
+      <c r="BM14" s="32">
         <f t="shared" si="61"/>
         <v>3</v>
       </c>
-      <c r="BN14" s="3">
-        <v>2</v>
-      </c>
-      <c r="BO14" s="3">
+      <c r="BN14" s="30">
+        <v>2</v>
+      </c>
+      <c r="BO14" s="30">
         <f t="shared" si="62"/>
         <v>6</v>
       </c>
-      <c r="BP14" s="6">
+      <c r="BP14" s="28">
         <v>77</v>
       </c>
-      <c r="BQ14" s="12" t="str">
+      <c r="BQ14" s="31" t="str">
         <f t="shared" si="63"/>
         <v>B+</v>
       </c>
-      <c r="BR14" s="13">
+      <c r="BR14" s="32">
         <f t="shared" si="64"/>
         <v>3.5</v>
       </c>
-      <c r="BS14" s="3">
-        <v>3</v>
-      </c>
-      <c r="BT14" s="3">
+      <c r="BS14" s="30">
+        <v>3</v>
+      </c>
+      <c r="BT14" s="30">
         <f t="shared" si="65"/>
         <v>10.5</v>
       </c>
-      <c r="BU14" s="3">
+      <c r="BU14" s="30">
         <v>80</v>
       </c>
-      <c r="BV14" s="12" t="str">
+      <c r="BV14" s="31" t="str">
         <f t="shared" si="66"/>
         <v>A</v>
       </c>
-      <c r="BW14" s="13">
+      <c r="BW14" s="32">
         <f t="shared" si="67"/>
         <v>4</v>
       </c>
-      <c r="BX14" s="3">
-        <v>2</v>
-      </c>
-      <c r="BY14" s="3">
+      <c r="BX14" s="30">
+        <v>2</v>
+      </c>
+      <c r="BY14" s="30">
         <f t="shared" si="68"/>
         <v>8</v>
       </c>
-      <c r="BZ14" s="6">
+      <c r="BZ14" s="28">
         <v>80</v>
       </c>
-      <c r="CA14" s="12" t="str">
+      <c r="CA14" s="31" t="str">
         <f t="shared" si="69"/>
         <v>A</v>
       </c>
-      <c r="CB14" s="13">
+      <c r="CB14" s="32">
         <f t="shared" si="70"/>
         <v>4</v>
       </c>
-      <c r="CC14" s="3">
-        <v>2</v>
-      </c>
-      <c r="CD14" s="3">
+      <c r="CC14" s="30">
+        <v>2</v>
+      </c>
+      <c r="CD14" s="30">
         <f t="shared" si="71"/>
         <v>8</v>
       </c>
-      <c r="CE14" s="6">
+      <c r="CE14" s="28">
         <v>76</v>
       </c>
-      <c r="CF14" s="12" t="str">
+      <c r="CF14" s="31" t="str">
         <f t="shared" si="72"/>
         <v>B+</v>
       </c>
-      <c r="CG14" s="13">
+      <c r="CG14" s="32">
         <f t="shared" si="73"/>
         <v>3.5</v>
       </c>
-      <c r="CH14" s="3">
-        <v>2</v>
-      </c>
-      <c r="CI14" s="3">
+      <c r="CH14" s="30">
+        <v>2</v>
+      </c>
+      <c r="CI14" s="30">
         <f t="shared" si="74"/>
         <v>7</v>
       </c>
-      <c r="CJ14" s="6">
+      <c r="CJ14" s="28">
         <v>73</v>
       </c>
-      <c r="CK14" s="12" t="str">
+      <c r="CK14" s="31" t="str">
         <f t="shared" si="75"/>
         <v>B</v>
       </c>
-      <c r="CL14" s="13">
+      <c r="CL14" s="32">
         <f t="shared" si="76"/>
         <v>3</v>
       </c>
-      <c r="CM14" s="3">
-        <v>3</v>
-      </c>
-      <c r="CN14" s="3">
+      <c r="CM14" s="30">
+        <v>3</v>
+      </c>
+      <c r="CN14" s="30">
         <f t="shared" si="77"/>
         <v>9</v>
       </c>
-      <c r="CO14" s="6">
+      <c r="CO14" s="28">
         <v>69</v>
       </c>
-      <c r="CP14" s="12" t="str">
+      <c r="CP14" s="31" t="str">
         <f t="shared" si="78"/>
         <v>C+</v>
       </c>
-      <c r="CQ14" s="13">
+      <c r="CQ14" s="32">
         <f t="shared" si="79"/>
         <v>2.5</v>
       </c>
-      <c r="CR14" s="3">
-        <v>2</v>
-      </c>
-      <c r="CS14" s="3">
+      <c r="CR14" s="30">
+        <v>2</v>
+      </c>
+      <c r="CS14" s="30">
         <f t="shared" si="80"/>
         <v>5</v>
       </c>
-      <c r="CT14" s="6">
+      <c r="CT14" s="28">
         <v>71</v>
       </c>
-      <c r="CU14" s="12" t="str">
+      <c r="CU14" s="31" t="str">
         <f t="shared" si="81"/>
         <v>B</v>
       </c>
-      <c r="CV14" s="13">
+      <c r="CV14" s="32">
         <f t="shared" si="82"/>
         <v>3</v>
       </c>
-      <c r="CW14" s="3">
-        <v>3</v>
-      </c>
-      <c r="CX14" s="3">
+      <c r="CW14" s="30">
+        <v>3</v>
+      </c>
+      <c r="CX14" s="30">
         <f t="shared" si="83"/>
         <v>9</v>
       </c>
-      <c r="CY14" s="6">
+      <c r="CY14" s="28">
         <v>79.2</v>
       </c>
-      <c r="CZ14" s="12" t="str">
+      <c r="CZ14" s="31" t="str">
         <f t="shared" si="84"/>
         <v>B+</v>
       </c>
-      <c r="DA14" s="13">
+      <c r="DA14" s="32">
         <f t="shared" si="85"/>
         <v>3.5</v>
       </c>
-      <c r="DB14" s="3">
-        <v>2</v>
-      </c>
-      <c r="DC14" s="3">
+      <c r="DB14" s="30">
+        <v>2</v>
+      </c>
+      <c r="DC14" s="30">
         <f t="shared" si="86"/>
         <v>7</v>
       </c>
-      <c r="DD14" s="6">
+      <c r="DD14" s="28">
         <v>70.599999999999994</v>
       </c>
-      <c r="DE14" s="12" t="str">
+      <c r="DE14" s="31" t="str">
         <f t="shared" si="87"/>
         <v>B</v>
       </c>
-      <c r="DF14" s="13">
+      <c r="DF14" s="32">
         <f t="shared" si="88"/>
         <v>3</v>
       </c>
-      <c r="DG14" s="3">
-        <v>2</v>
-      </c>
-      <c r="DH14" s="3">
+      <c r="DG14" s="30">
+        <v>2</v>
+      </c>
+      <c r="DH14" s="30">
         <f t="shared" si="89"/>
         <v>6</v>
       </c>
-      <c r="DI14" s="6">
+      <c r="DI14" s="28">
         <v>71.349999999999994</v>
       </c>
-      <c r="DJ14" s="12" t="str">
+      <c r="DJ14" s="31" t="str">
         <f t="shared" si="90"/>
         <v>B</v>
       </c>
-      <c r="DK14" s="13">
+      <c r="DK14" s="32">
         <f t="shared" si="91"/>
         <v>3</v>
       </c>
-      <c r="DL14" s="3">
-        <v>3</v>
-      </c>
-      <c r="DM14" s="3">
+      <c r="DL14" s="30">
+        <v>3</v>
+      </c>
+      <c r="DM14" s="30">
         <f t="shared" si="92"/>
         <v>9</v>
       </c>
-      <c r="DN14" s="6">
+      <c r="DN14" s="28">
         <v>70</v>
       </c>
-      <c r="DO14" s="12" t="str">
+      <c r="DO14" s="31" t="str">
         <f t="shared" si="93"/>
         <v>B</v>
       </c>
-      <c r="DP14" s="13">
+      <c r="DP14" s="32">
         <f t="shared" si="94"/>
         <v>3</v>
       </c>
-      <c r="DQ14" s="3">
-        <v>2</v>
-      </c>
-      <c r="DR14" s="3">
+      <c r="DQ14" s="30">
+        <v>2</v>
+      </c>
+      <c r="DR14" s="30">
         <f t="shared" si="95"/>
         <v>6</v>
       </c>
-      <c r="DS14" s="6">
+      <c r="DS14" s="28">
         <v>77.95</v>
       </c>
-      <c r="DT14" s="12" t="str">
+      <c r="DT14" s="31" t="str">
         <f t="shared" si="96"/>
         <v>B+</v>
       </c>
-      <c r="DU14" s="13">
+      <c r="DU14" s="32">
         <f t="shared" si="97"/>
         <v>3.5</v>
       </c>
-      <c r="DV14" s="3">
-        <v>2</v>
-      </c>
-      <c r="DW14" s="3">
+      <c r="DV14" s="30">
+        <v>2</v>
+      </c>
+      <c r="DW14" s="30">
         <f t="shared" si="98"/>
         <v>7</v>
       </c>
-      <c r="DX14" s="6">
+      <c r="DX14" s="28">
         <v>75.099999999999994</v>
       </c>
-      <c r="DY14" s="12" t="str">
+      <c r="DY14" s="31" t="str">
         <f t="shared" si="99"/>
         <v>B+</v>
       </c>
-      <c r="DZ14" s="13">
+      <c r="DZ14" s="32">
         <f t="shared" si="100"/>
         <v>3.5</v>
       </c>
-      <c r="EA14" s="3">
-        <v>2</v>
-      </c>
-      <c r="EB14" s="3">
+      <c r="EA14" s="30">
+        <v>2</v>
+      </c>
+      <c r="EB14" s="30">
         <f t="shared" si="101"/>
         <v>7</v>
       </c>
-      <c r="EC14" s="6">
+      <c r="EC14" s="28">
         <v>78</v>
       </c>
-      <c r="ED14" s="12" t="str">
+      <c r="ED14" s="31" t="str">
         <f t="shared" si="102"/>
         <v>B+</v>
       </c>
-      <c r="EE14" s="13">
+      <c r="EE14" s="32">
         <f t="shared" si="103"/>
         <v>3.5</v>
       </c>
-      <c r="EF14" s="3">
-        <v>2</v>
-      </c>
-      <c r="EG14" s="3">
+      <c r="EF14" s="30">
+        <v>2</v>
+      </c>
+      <c r="EG14" s="30">
         <f t="shared" si="104"/>
         <v>7</v>
       </c>
-      <c r="EH14" s="6">
+      <c r="EH14" s="28">
         <v>72.5</v>
       </c>
-      <c r="EI14" s="12" t="str">
+      <c r="EI14" s="31" t="str">
         <f t="shared" si="105"/>
         <v>B</v>
       </c>
-      <c r="EJ14" s="13">
+      <c r="EJ14" s="32">
         <f t="shared" si="106"/>
         <v>3</v>
       </c>
-      <c r="EK14" s="3">
-        <v>3</v>
-      </c>
-      <c r="EL14" s="3">
+      <c r="EK14" s="30">
+        <v>3</v>
+      </c>
+      <c r="EL14" s="30">
         <f t="shared" si="107"/>
         <v>9</v>
       </c>
-      <c r="EM14" s="6">
+      <c r="EM14" s="28">
         <v>79</v>
       </c>
-      <c r="EN14" s="12" t="str">
+      <c r="EN14" s="31" t="str">
         <f t="shared" si="108"/>
         <v>B+</v>
       </c>
-      <c r="EO14" s="13">
+      <c r="EO14" s="32">
         <f t="shared" si="109"/>
         <v>3.5</v>
       </c>
-      <c r="EP14" s="3">
-        <v>4</v>
-      </c>
-      <c r="EQ14" s="3">
+      <c r="EP14" s="30">
+        <v>4</v>
+      </c>
+      <c r="EQ14" s="30">
         <f t="shared" si="110"/>
         <v>14</v>
       </c>
-      <c r="ER14" s="6">
+      <c r="ER14" s="28">
         <f t="shared" si="111"/>
         <v>86.5</v>
       </c>
-      <c r="ES14" s="6">
+      <c r="ES14" s="28">
         <f t="shared" si="112"/>
         <v>22</v>
       </c>
-      <c r="ET14" s="6">
+      <c r="ET14" s="28">
         <f t="shared" si="113"/>
         <v>78.5</v>
       </c>
-      <c r="EU14" s="6">
+      <c r="EU14" s="28">
         <f t="shared" si="114"/>
         <v>23</v>
       </c>
-      <c r="EV14" s="6">
+      <c r="EV14" s="28">
         <f t="shared" si="115"/>
         <v>72</v>
       </c>
-      <c r="EW14" s="6">
+      <c r="EW14" s="28">
         <f t="shared" si="116"/>
         <v>22</v>
       </c>
-      <c r="EX14" s="6">
+      <c r="EX14" s="28">
         <f t="shared" si="117"/>
         <v>237</v>
       </c>
-      <c r="EY14" s="6">
+      <c r="EY14" s="28">
         <f t="shared" si="118"/>
         <v>67</v>
       </c>
-      <c r="EZ14" s="17">
+      <c r="EZ14" s="33">
         <f t="shared" si="119"/>
         <v>3.5373134328358211</v>
       </c>
-      <c r="FA14" s="7" t="str">
+      <c r="FA14" s="27" t="str">
         <f t="shared" si="120"/>
         <v>Cum Laude</v>
       </c>
-      <c r="FB14" s="14" t="str">
+      <c r="FB14" s="34" t="str">
         <f t="shared" si="121"/>
         <v>Excellent</v>
       </c>
-      <c r="FC14" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="FD14" s="6" t="s">
-        <v>123</v>
+      <c r="FC14" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="FD14" s="28" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -8753,22 +8781,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7">
         <v>172312017</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H15" s="3">
         <v>79</v>
@@ -9319,10 +9347,10 @@
         <v>Excellent</v>
       </c>
       <c r="FC15" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="FD15" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:160" ht="15" x14ac:dyDescent="0.25">
@@ -9336,16 +9364,16 @@
         <v>172312018</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H16" s="3">
         <v>78</v>
@@ -9896,10 +9924,10 @@
         <v>Excellent</v>
       </c>
       <c r="FC16" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="FD16" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="41:41" x14ac:dyDescent="0.2">
